--- a/WIP/Recycled Energy Savings in Singapore/output/3-2_updated_recycling_rate.xlsx
+++ b/WIP/Recycled Energy Savings in Singapore/output/3-2_updated_recycling_rate.xlsx
@@ -40,25 +40,31 @@
     <t>rank</t>
   </si>
   <si>
+    <t>construction debris</t>
+  </si>
+  <si>
     <t>ferrous metal</t>
+  </si>
+  <si>
+    <t>used slag</t>
+  </si>
+  <si>
+    <t>nonferrous metal</t>
+  </si>
+  <si>
+    <t>scrap tyre</t>
   </si>
   <si>
     <t>paper cardboard</t>
   </si>
   <si>
-    <t>construction debris</t>
-  </si>
-  <si>
-    <t>used slag</t>
-  </si>
-  <si>
     <t>horticultural waste</t>
   </si>
   <si>
-    <t>nonferrous metal</t>
+    <t>wood timber</t>
   </si>
   <si>
-    <t>wood timber</t>
+    <t>glass</t>
   </si>
   <si>
     <t>plastic</t>
@@ -67,19 +73,13 @@
     <t>food waste</t>
   </si>
   <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>scrap tyre</t>
-  </si>
-  <si>
     <t>textile leather</t>
   </si>
   <si>
-    <t>ash sludge</t>
+    <t>others stone ceramic rubber etc</t>
   </si>
   <si>
-    <t>others stone ceramic rubber etc</t>
+    <t>ash sludge</t>
   </si>
   <si>
     <t>2003</t>
@@ -534,22 +534,22 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>856700</v>
+        <v>422900</v>
       </c>
       <c r="C2">
-        <v>799000</v>
+        <v>398300</v>
       </c>
       <c r="D2">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E2">
-        <v>57700</v>
+        <v>24600</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2">
-        <v>93.26000000000001</v>
+        <v>94.18000000000001</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -560,22 +560,22 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1084700</v>
+        <v>856700</v>
       </c>
       <c r="C3">
-        <v>466200</v>
+        <v>799000</v>
       </c>
       <c r="D3">
-        <v>0.43</v>
+        <v>0.93</v>
       </c>
       <c r="E3">
-        <v>618500</v>
+        <v>57700</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3">
-        <v>42.98</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -586,22 +586,22 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>422900</v>
+        <v>260300</v>
       </c>
       <c r="C4">
-        <v>398300</v>
+        <v>238500</v>
       </c>
       <c r="D4">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="E4">
-        <v>24600</v>
+        <v>21800</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4">
-        <v>94.18000000000001</v>
+        <v>91.63</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -612,22 +612,22 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>260300</v>
+        <v>93900</v>
       </c>
       <c r="C5">
-        <v>238500</v>
+        <v>75800</v>
       </c>
       <c r="D5">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E5">
-        <v>21800</v>
+        <v>18100</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5">
-        <v>91.63</v>
+        <v>80.72</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -638,22 +638,22 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>304600</v>
+        <v>14400</v>
       </c>
       <c r="C6">
-        <v>119300</v>
+        <v>6200</v>
       </c>
       <c r="D6">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="E6">
-        <v>185300</v>
+        <v>8200</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6">
-        <v>39.17</v>
+        <v>43.06</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -664,22 +664,22 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>93900</v>
+        <v>1084700</v>
       </c>
       <c r="C7">
-        <v>75800</v>
+        <v>466200</v>
       </c>
       <c r="D7">
-        <v>0.8100000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="E7">
-        <v>18100</v>
+        <v>618500</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7">
-        <v>80.72</v>
+        <v>42.98</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -690,22 +690,22 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>213400</v>
+        <v>304600</v>
       </c>
       <c r="C8">
-        <v>40800</v>
+        <v>119300</v>
       </c>
       <c r="D8">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="E8">
-        <v>172600</v>
+        <v>185300</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8">
-        <v>19.12</v>
+        <v>39.17</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -716,22 +716,22 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>579900</v>
+        <v>213400</v>
       </c>
       <c r="C9">
-        <v>39100</v>
+        <v>40800</v>
       </c>
       <c r="D9">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="E9">
-        <v>540800</v>
+        <v>172600</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9">
-        <v>6.74</v>
+        <v>19.12</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -742,22 +742,22 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>548000</v>
+        <v>65500</v>
       </c>
       <c r="C10">
-        <v>32900</v>
+        <v>6200</v>
       </c>
       <c r="D10">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E10">
-        <v>515100</v>
+        <v>59300</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -768,22 +768,22 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>65500</v>
+        <v>579900</v>
       </c>
       <c r="C11">
-        <v>6200</v>
+        <v>39100</v>
       </c>
       <c r="D11">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E11">
-        <v>59300</v>
+        <v>540800</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11">
-        <v>9.470000000000001</v>
+        <v>6.74</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -794,25 +794,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>14400</v>
+        <v>548000</v>
       </c>
       <c r="C12">
-        <v>6200</v>
+        <v>32900</v>
       </c>
       <c r="D12">
-        <v>0.43</v>
+        <v>0.06</v>
       </c>
       <c r="E12">
-        <v>8200</v>
+        <v>515100</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12">
-        <v>43.06</v>
+        <v>6</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -846,7 +846,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>88500</v>
+        <v>103800</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>88500</v>
+        <v>103800</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -872,7 +872,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>103800</v>
+        <v>88500</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>103800</v>
+        <v>88500</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -895,25 +895,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>720200</v>
+        <v>267200</v>
       </c>
       <c r="C16">
-        <v>649900</v>
+        <v>259600</v>
       </c>
       <c r="D16">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="E16">
-        <v>70300</v>
+        <v>7600</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
       </c>
       <c r="G16">
-        <v>90.23999999999999</v>
+        <v>97.16</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -921,25 +921,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>1132100</v>
+        <v>509000</v>
       </c>
       <c r="C17">
-        <v>519900</v>
+        <v>471000</v>
       </c>
       <c r="D17">
-        <v>0.46</v>
+        <v>0.93</v>
       </c>
       <c r="E17">
-        <v>612200</v>
+        <v>38000</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
       </c>
       <c r="G17">
-        <v>45.92</v>
+        <v>92.53</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -947,25 +947,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>509000</v>
+        <v>720200</v>
       </c>
       <c r="C18">
-        <v>471000</v>
+        <v>649900</v>
       </c>
       <c r="D18">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="E18">
-        <v>38000</v>
+        <v>70300</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
       </c>
       <c r="G18">
-        <v>92.53</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>267200</v>
+        <v>86900</v>
       </c>
       <c r="C19">
-        <v>259600</v>
+        <v>71800</v>
       </c>
       <c r="D19">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="E19">
-        <v>7600</v>
+        <v>15100</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
       </c>
       <c r="G19">
-        <v>97.16</v>
+        <v>82.62</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>227000</v>
@@ -1025,25 +1025,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>683100</v>
+        <v>14700</v>
       </c>
       <c r="C21">
-        <v>74100</v>
+        <v>7200</v>
       </c>
       <c r="D21">
-        <v>0.11</v>
+        <v>0.49</v>
       </c>
       <c r="E21">
-        <v>609000</v>
+        <v>7500</v>
       </c>
       <c r="F21" t="s">
         <v>23</v>
       </c>
       <c r="G21">
-        <v>10.85</v>
+        <v>48.98</v>
       </c>
       <c r="H21">
         <v>6</v>
@@ -1051,25 +1051,25 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>222300</v>
+        <v>1132100</v>
       </c>
       <c r="C22">
-        <v>73700</v>
+        <v>519900</v>
       </c>
       <c r="D22">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="E22">
-        <v>148600</v>
+        <v>612200</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
       </c>
       <c r="G22">
-        <v>33.15</v>
+        <v>45.92</v>
       </c>
       <c r="H22">
         <v>7</v>
@@ -1077,25 +1077,25 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>86900</v>
+        <v>222300</v>
       </c>
       <c r="C23">
-        <v>71800</v>
+        <v>73700</v>
       </c>
       <c r="D23">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="E23">
-        <v>15100</v>
+        <v>148600</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
       </c>
       <c r="G23">
-        <v>82.62</v>
+        <v>33.15</v>
       </c>
       <c r="H23">
         <v>8</v>
@@ -1103,25 +1103,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>531100</v>
+        <v>683100</v>
       </c>
       <c r="C24">
-        <v>31100</v>
+        <v>74100</v>
       </c>
       <c r="D24">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="E24">
-        <v>500000</v>
+        <v>609000</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
       </c>
       <c r="G24">
-        <v>5.86</v>
+        <v>10.85</v>
       </c>
       <c r="H24">
         <v>9</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>114100</v>
@@ -1155,25 +1155,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>14700</v>
+        <v>73600</v>
       </c>
       <c r="C26">
-        <v>7200</v>
+        <v>4900</v>
       </c>
       <c r="D26">
-        <v>0.49</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E26">
-        <v>7500</v>
+        <v>68700</v>
       </c>
       <c r="F26" t="s">
         <v>23</v>
       </c>
       <c r="G26">
-        <v>48.98</v>
+        <v>6.66</v>
       </c>
       <c r="H26">
         <v>11</v>
@@ -1181,25 +1181,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>114500</v>
+        <v>531100</v>
       </c>
       <c r="C27">
-        <v>5000</v>
+        <v>31100</v>
       </c>
       <c r="D27">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E27">
-        <v>109500</v>
+        <v>500000</v>
       </c>
       <c r="F27" t="s">
         <v>23</v>
       </c>
       <c r="G27">
-        <v>4.37</v>
+        <v>5.86</v>
       </c>
       <c r="H27">
         <v>12</v>
@@ -1207,25 +1207,25 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B28">
-        <v>73600</v>
+        <v>114500</v>
       </c>
       <c r="C28">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="D28">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="E28">
-        <v>68700</v>
+        <v>109500</v>
       </c>
       <c r="F28" t="s">
         <v>23</v>
       </c>
       <c r="G28">
-        <v>6.66</v>
+        <v>4.37</v>
       </c>
       <c r="H28">
         <v>13</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <v>93900</v>
@@ -1262,22 +1262,22 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>818300</v>
+        <v>492500</v>
       </c>
       <c r="C30">
-        <v>749100</v>
+        <v>465300</v>
       </c>
       <c r="D30">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E30">
-        <v>69200</v>
+        <v>27200</v>
       </c>
       <c r="F30" t="s">
         <v>24</v>
       </c>
       <c r="G30">
-        <v>91.54000000000001</v>
+        <v>94.48</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1288,22 +1288,22 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>1098600</v>
+        <v>818300</v>
       </c>
       <c r="C31">
-        <v>540500</v>
+        <v>749100</v>
       </c>
       <c r="D31">
-        <v>0.49</v>
+        <v>0.92</v>
       </c>
       <c r="E31">
-        <v>558100</v>
+        <v>69200</v>
       </c>
       <c r="F31" t="s">
         <v>24</v>
       </c>
       <c r="G31">
-        <v>49.2</v>
+        <v>91.54000000000001</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -1311,25 +1311,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
-        <v>492500</v>
+        <v>89400</v>
       </c>
       <c r="C32">
-        <v>465300</v>
+        <v>74700</v>
       </c>
       <c r="D32">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="E32">
-        <v>27200</v>
+        <v>14700</v>
       </c>
       <c r="F32" t="s">
         <v>24</v>
       </c>
       <c r="G32">
-        <v>94.48</v>
+        <v>83.56</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33">
         <v>382400</v>
@@ -1366,22 +1366,22 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>199500</v>
+        <v>16800</v>
       </c>
       <c r="C34">
-        <v>101000</v>
+        <v>10800</v>
       </c>
       <c r="D34">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="E34">
-        <v>98500</v>
+        <v>6000</v>
       </c>
       <c r="F34" t="s">
         <v>24</v>
       </c>
       <c r="G34">
-        <v>50.63</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -1392,22 +1392,22 @@
         <v>14</v>
       </c>
       <c r="B35">
-        <v>239300</v>
+        <v>199500</v>
       </c>
       <c r="C35">
-        <v>90000</v>
+        <v>101000</v>
       </c>
       <c r="D35">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="E35">
-        <v>149300</v>
+        <v>98500</v>
       </c>
       <c r="F35" t="s">
         <v>24</v>
       </c>
       <c r="G35">
-        <v>37.61</v>
+        <v>50.63</v>
       </c>
       <c r="H35">
         <v>6</v>
@@ -1415,25 +1415,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>674800</v>
+        <v>1098600</v>
       </c>
       <c r="C36">
-        <v>86000</v>
+        <v>540500</v>
       </c>
       <c r="D36">
-        <v>0.13</v>
+        <v>0.49</v>
       </c>
       <c r="E36">
-        <v>588800</v>
+        <v>558100</v>
       </c>
       <c r="F36" t="s">
         <v>24</v>
       </c>
       <c r="G36">
-        <v>12.74</v>
+        <v>49.2</v>
       </c>
       <c r="H36">
         <v>7</v>
@@ -1441,25 +1441,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>89400</v>
+        <v>239300</v>
       </c>
       <c r="C37">
-        <v>74700</v>
+        <v>90000</v>
       </c>
       <c r="D37">
-        <v>0.84</v>
+        <v>0.38</v>
       </c>
       <c r="E37">
-        <v>14700</v>
+        <v>149300</v>
       </c>
       <c r="F37" t="s">
         <v>24</v>
       </c>
       <c r="G37">
-        <v>83.56</v>
+        <v>37.61</v>
       </c>
       <c r="H37">
         <v>8</v>
@@ -1467,25 +1467,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38">
-        <v>531500</v>
+        <v>674800</v>
       </c>
       <c r="C38">
-        <v>36500</v>
+        <v>86000</v>
       </c>
       <c r="D38">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E38">
-        <v>495000</v>
+        <v>588800</v>
       </c>
       <c r="F38" t="s">
         <v>24</v>
       </c>
       <c r="G38">
-        <v>6.87</v>
+        <v>12.74</v>
       </c>
       <c r="H38">
         <v>9</v>
@@ -1496,22 +1496,22 @@
         <v>18</v>
       </c>
       <c r="B39">
-        <v>16800</v>
+        <v>531500</v>
       </c>
       <c r="C39">
-        <v>10800</v>
+        <v>36500</v>
       </c>
       <c r="D39">
-        <v>0.64</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E39">
-        <v>6000</v>
+        <v>495000</v>
       </c>
       <c r="F39" t="s">
         <v>24</v>
       </c>
       <c r="G39">
-        <v>64.29000000000001</v>
+        <v>6.87</v>
       </c>
       <c r="H39">
         <v>10</v>
@@ -1519,25 +1519,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>225200</v>
+        <v>62600</v>
       </c>
       <c r="C40">
-        <v>8800</v>
+        <v>3800</v>
       </c>
       <c r="D40">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E40">
-        <v>216400</v>
+        <v>58800</v>
       </c>
       <c r="F40" t="s">
         <v>24</v>
       </c>
       <c r="G40">
-        <v>3.91</v>
+        <v>6.07</v>
       </c>
       <c r="H40">
         <v>11</v>
@@ -1571,25 +1571,25 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>62600</v>
+        <v>225200</v>
       </c>
       <c r="C42">
-        <v>3800</v>
+        <v>8800</v>
       </c>
       <c r="D42">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E42">
-        <v>58800</v>
+        <v>216400</v>
       </c>
       <c r="F42" t="s">
         <v>24</v>
       </c>
       <c r="G42">
-        <v>6.07</v>
+        <v>3.91</v>
       </c>
       <c r="H42">
         <v>13</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B43">
         <v>98300</v>
@@ -1626,22 +1626,22 @@
         <v>8</v>
       </c>
       <c r="B44">
-        <v>725900</v>
+        <v>619000</v>
       </c>
       <c r="C44">
-        <v>657400</v>
+        <v>604000</v>
       </c>
       <c r="D44">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="E44">
-        <v>68500</v>
+        <v>15000</v>
       </c>
       <c r="F44" t="s">
         <v>25</v>
       </c>
       <c r="G44">
-        <v>90.56</v>
+        <v>97.58</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -1649,25 +1649,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45">
-        <v>619000</v>
+        <v>725900</v>
       </c>
       <c r="C45">
-        <v>604000</v>
+        <v>657400</v>
       </c>
       <c r="D45">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="E45">
-        <v>15000</v>
+        <v>68500</v>
       </c>
       <c r="F45" t="s">
         <v>25</v>
       </c>
       <c r="G45">
-        <v>97.58</v>
+        <v>90.56</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -1675,25 +1675,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>1116300</v>
+        <v>470600</v>
       </c>
       <c r="C46">
-        <v>571400</v>
+        <v>417000</v>
       </c>
       <c r="D46">
-        <v>0.51</v>
+        <v>0.89</v>
       </c>
       <c r="E46">
-        <v>544900</v>
+        <v>53600</v>
       </c>
       <c r="F46" t="s">
         <v>25</v>
       </c>
       <c r="G46">
-        <v>51.19</v>
+        <v>88.61</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -1704,22 +1704,22 @@
         <v>11</v>
       </c>
       <c r="B47">
-        <v>470600</v>
+        <v>86700</v>
       </c>
       <c r="C47">
-        <v>417000</v>
+        <v>70700</v>
       </c>
       <c r="D47">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="E47">
-        <v>53600</v>
+        <v>16000</v>
       </c>
       <c r="F47" t="s">
         <v>25</v>
       </c>
       <c r="G47">
-        <v>88.61</v>
+        <v>81.55</v>
       </c>
       <c r="H47">
         <v>4</v>
@@ -1730,22 +1730,22 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <v>231000</v>
+        <v>23900</v>
       </c>
       <c r="C48">
-        <v>87000</v>
+        <v>19400</v>
       </c>
       <c r="D48">
-        <v>0.38</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E48">
-        <v>144000</v>
+        <v>4500</v>
       </c>
       <c r="F48" t="s">
         <v>25</v>
       </c>
       <c r="G48">
-        <v>37.66</v>
+        <v>81.17</v>
       </c>
       <c r="H48">
         <v>5</v>
@@ -1753,25 +1753,25 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>223700</v>
+        <v>1116300</v>
       </c>
       <c r="C49">
-        <v>81700</v>
+        <v>571400</v>
       </c>
       <c r="D49">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="E49">
-        <v>142000</v>
+        <v>544900</v>
       </c>
       <c r="F49" t="s">
         <v>25</v>
       </c>
       <c r="G49">
-        <v>36.52</v>
+        <v>51.19</v>
       </c>
       <c r="H49">
         <v>6</v>
@@ -1779,25 +1779,25 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>656800</v>
+        <v>231000</v>
       </c>
       <c r="C50">
-        <v>77800</v>
+        <v>87000</v>
       </c>
       <c r="D50">
-        <v>0.12</v>
+        <v>0.38</v>
       </c>
       <c r="E50">
-        <v>579000</v>
+        <v>144000</v>
       </c>
       <c r="F50" t="s">
         <v>25</v>
       </c>
       <c r="G50">
-        <v>11.85</v>
+        <v>37.66</v>
       </c>
       <c r="H50">
         <v>7</v>
@@ -1805,25 +1805,25 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>86700</v>
+        <v>223700</v>
       </c>
       <c r="C51">
-        <v>70700</v>
+        <v>81700</v>
       </c>
       <c r="D51">
-        <v>0.82</v>
+        <v>0.37</v>
       </c>
       <c r="E51">
-        <v>16000</v>
+        <v>142000</v>
       </c>
       <c r="F51" t="s">
         <v>25</v>
       </c>
       <c r="G51">
-        <v>81.55</v>
+        <v>36.52</v>
       </c>
       <c r="H51">
         <v>8</v>
@@ -1831,25 +1831,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B52">
-        <v>542700</v>
+        <v>656800</v>
       </c>
       <c r="C52">
-        <v>44700</v>
+        <v>77800</v>
       </c>
       <c r="D52">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E52">
-        <v>498000</v>
+        <v>579000</v>
       </c>
       <c r="F52" t="s">
         <v>25</v>
       </c>
       <c r="G52">
-        <v>8.24</v>
+        <v>11.85</v>
       </c>
       <c r="H52">
         <v>9</v>
@@ -1857,25 +1857,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B53">
-        <v>23900</v>
+        <v>63000</v>
       </c>
       <c r="C53">
-        <v>19400</v>
+        <v>6400</v>
       </c>
       <c r="D53">
-        <v>0.8100000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E53">
-        <v>4500</v>
+        <v>56600</v>
       </c>
       <c r="F53" t="s">
         <v>25</v>
       </c>
       <c r="G53">
-        <v>81.17</v>
+        <v>10.16</v>
       </c>
       <c r="H53">
         <v>10</v>
@@ -1883,25 +1883,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B54">
-        <v>242300</v>
+        <v>542700</v>
       </c>
       <c r="C54">
-        <v>15300</v>
+        <v>44700</v>
       </c>
       <c r="D54">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E54">
-        <v>227000</v>
+        <v>498000</v>
       </c>
       <c r="F54" t="s">
         <v>25</v>
       </c>
       <c r="G54">
-        <v>6.31</v>
+        <v>8.24</v>
       </c>
       <c r="H54">
         <v>11</v>
@@ -1909,25 +1909,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B55">
-        <v>63000</v>
+        <v>242300</v>
       </c>
       <c r="C55">
-        <v>6400</v>
+        <v>15300</v>
       </c>
       <c r="D55">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E55">
-        <v>56600</v>
+        <v>227000</v>
       </c>
       <c r="F55" t="s">
         <v>25</v>
       </c>
       <c r="G55">
-        <v>10.16</v>
+        <v>6.31</v>
       </c>
       <c r="H55">
         <v>12</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B57">
         <v>126800</v>
@@ -1990,22 +1990,22 @@
         <v>10</v>
       </c>
       <c r="B58">
-        <v>778300</v>
+        <v>527200</v>
       </c>
       <c r="C58">
-        <v>759300</v>
+        <v>520000</v>
       </c>
       <c r="D58">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="E58">
-        <v>19000</v>
+        <v>7200</v>
       </c>
       <c r="F58" t="s">
         <v>26</v>
       </c>
       <c r="G58">
-        <v>97.56</v>
+        <v>98.63</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -2016,22 +2016,22 @@
         <v>8</v>
       </c>
       <c r="B59">
-        <v>736500</v>
+        <v>778300</v>
       </c>
       <c r="C59">
-        <v>668000</v>
+        <v>759300</v>
       </c>
       <c r="D59">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="E59">
-        <v>68500</v>
+        <v>19000</v>
       </c>
       <c r="F59" t="s">
         <v>26</v>
       </c>
       <c r="G59">
-        <v>90.7</v>
+        <v>97.56</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -2042,22 +2042,22 @@
         <v>9</v>
       </c>
       <c r="B60">
-        <v>1202900</v>
+        <v>736500</v>
       </c>
       <c r="C60">
-        <v>619000</v>
+        <v>668000</v>
       </c>
       <c r="D60">
-        <v>0.51</v>
+        <v>0.91</v>
       </c>
       <c r="E60">
-        <v>583900</v>
+        <v>68500</v>
       </c>
       <c r="F60" t="s">
         <v>26</v>
       </c>
       <c r="G60">
-        <v>51.46</v>
+        <v>90.7</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -2065,25 +2065,25 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B61">
-        <v>527200</v>
+        <v>25500</v>
       </c>
       <c r="C61">
-        <v>520000</v>
+        <v>22000</v>
       </c>
       <c r="D61">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="E61">
-        <v>7200</v>
+        <v>3500</v>
       </c>
       <c r="F61" t="s">
         <v>26</v>
       </c>
       <c r="G61">
-        <v>98.63</v>
+        <v>86.27</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -2091,25 +2091,25 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B62">
-        <v>246200</v>
+        <v>92300</v>
       </c>
       <c r="C62">
-        <v>127800</v>
+        <v>75600</v>
       </c>
       <c r="D62">
-        <v>0.52</v>
+        <v>0.82</v>
       </c>
       <c r="E62">
-        <v>118400</v>
+        <v>16700</v>
       </c>
       <c r="F62" t="s">
         <v>26</v>
       </c>
       <c r="G62">
-        <v>51.91</v>
+        <v>81.91</v>
       </c>
       <c r="H62">
         <v>5</v>
@@ -2117,25 +2117,25 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B63">
-        <v>224600</v>
+        <v>246200</v>
       </c>
       <c r="C63">
-        <v>91100</v>
+        <v>127800</v>
       </c>
       <c r="D63">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="E63">
-        <v>133500</v>
+        <v>118400</v>
       </c>
       <c r="F63" t="s">
         <v>26</v>
       </c>
       <c r="G63">
-        <v>40.56</v>
+        <v>51.91</v>
       </c>
       <c r="H63">
         <v>6</v>
@@ -2146,22 +2146,22 @@
         <v>13</v>
       </c>
       <c r="B64">
-        <v>92300</v>
+        <v>1202900</v>
       </c>
       <c r="C64">
-        <v>75600</v>
+        <v>619000</v>
       </c>
       <c r="D64">
-        <v>0.82</v>
+        <v>0.51</v>
       </c>
       <c r="E64">
-        <v>16700</v>
+        <v>583900</v>
       </c>
       <c r="F64" t="s">
         <v>26</v>
       </c>
       <c r="G64">
-        <v>81.91</v>
+        <v>51.46</v>
       </c>
       <c r="H64">
         <v>7</v>
@@ -2169,25 +2169,25 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65">
-        <v>659800</v>
+        <v>224600</v>
       </c>
       <c r="C65">
-        <v>75000</v>
+        <v>91100</v>
       </c>
       <c r="D65">
-        <v>0.11</v>
+        <v>0.41</v>
       </c>
       <c r="E65">
-        <v>584800</v>
+        <v>133500</v>
       </c>
       <c r="F65" t="s">
         <v>26</v>
       </c>
       <c r="G65">
-        <v>11.37</v>
+        <v>40.56</v>
       </c>
       <c r="H65">
         <v>8</v>
@@ -2195,25 +2195,25 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B66">
-        <v>558900</v>
+        <v>659800</v>
       </c>
       <c r="C66">
-        <v>51200</v>
+        <v>75000</v>
       </c>
       <c r="D66">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E66">
-        <v>507700</v>
+        <v>584800</v>
       </c>
       <c r="F66" t="s">
         <v>26</v>
       </c>
       <c r="G66">
-        <v>9.16</v>
+        <v>11.37</v>
       </c>
       <c r="H66">
         <v>9</v>
@@ -2224,22 +2224,22 @@
         <v>18</v>
       </c>
       <c r="B67">
-        <v>25500</v>
+        <v>558900</v>
       </c>
       <c r="C67">
-        <v>22000</v>
+        <v>51200</v>
       </c>
       <c r="D67">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="E67">
-        <v>3500</v>
+        <v>507700</v>
       </c>
       <c r="F67" t="s">
         <v>26</v>
       </c>
       <c r="G67">
-        <v>86.27</v>
+        <v>9.16</v>
       </c>
       <c r="H67">
         <v>10</v>
@@ -2247,25 +2247,25 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B68">
-        <v>248600</v>
+        <v>65300</v>
       </c>
       <c r="C68">
-        <v>14000</v>
+        <v>5800</v>
       </c>
       <c r="D68">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E68">
-        <v>234600</v>
+        <v>59500</v>
       </c>
       <c r="F68" t="s">
         <v>26</v>
       </c>
       <c r="G68">
-        <v>5.63</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="H68">
         <v>11</v>
@@ -2273,25 +2273,25 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B69">
-        <v>110100</v>
+        <v>248600</v>
       </c>
       <c r="C69">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="D69">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E69">
-        <v>104100</v>
+        <v>234600</v>
       </c>
       <c r="F69" t="s">
         <v>26</v>
       </c>
       <c r="G69">
-        <v>5.45</v>
+        <v>5.63</v>
       </c>
       <c r="H69">
         <v>12</v>
@@ -2299,25 +2299,25 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B70">
-        <v>65300</v>
+        <v>110100</v>
       </c>
       <c r="C70">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="D70">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="E70">
-        <v>59500</v>
+        <v>104100</v>
       </c>
       <c r="F70" t="s">
         <v>26</v>
       </c>
       <c r="G70">
-        <v>8.880000000000001</v>
+        <v>5.45</v>
       </c>
       <c r="H70">
         <v>13</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B71">
         <v>124600</v>
@@ -2354,22 +2354,22 @@
         <v>10</v>
       </c>
       <c r="B72">
-        <v>922000</v>
+        <v>566200</v>
       </c>
       <c r="C72">
-        <v>900000</v>
+        <v>560500</v>
       </c>
       <c r="D72">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="E72">
-        <v>22000</v>
+        <v>5700</v>
       </c>
       <c r="F72" t="s">
         <v>27</v>
       </c>
       <c r="G72">
-        <v>97.61</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -2380,22 +2380,22 @@
         <v>8</v>
       </c>
       <c r="B73">
-        <v>784800</v>
+        <v>922000</v>
       </c>
       <c r="C73">
-        <v>735000</v>
+        <v>900000</v>
       </c>
       <c r="D73">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="E73">
-        <v>49800</v>
+        <v>22000</v>
       </c>
       <c r="F73" t="s">
         <v>27</v>
       </c>
       <c r="G73">
-        <v>93.65000000000001</v>
+        <v>97.61</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -2406,22 +2406,22 @@
         <v>9</v>
       </c>
       <c r="B74">
-        <v>1262500</v>
+        <v>784800</v>
       </c>
       <c r="C74">
-        <v>608600</v>
+        <v>735000</v>
       </c>
       <c r="D74">
-        <v>0.48</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E74">
-        <v>653900</v>
+        <v>49800</v>
       </c>
       <c r="F74" t="s">
         <v>27</v>
       </c>
       <c r="G74">
-        <v>48.21</v>
+        <v>93.65000000000001</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -2429,25 +2429,25 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B75">
-        <v>566200</v>
+        <v>25100</v>
       </c>
       <c r="C75">
-        <v>560500</v>
+        <v>22100</v>
       </c>
       <c r="D75">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="E75">
-        <v>5700</v>
+        <v>3000</v>
       </c>
       <c r="F75" t="s">
         <v>27</v>
       </c>
       <c r="G75">
-        <v>98.98999999999999</v>
+        <v>88.05</v>
       </c>
       <c r="H75">
         <v>4</v>
@@ -2455,25 +2455,25 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B76">
-        <v>269600</v>
+        <v>85000</v>
       </c>
       <c r="C76">
-        <v>190200</v>
+        <v>72000</v>
       </c>
       <c r="D76">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="E76">
-        <v>79400</v>
+        <v>13000</v>
       </c>
       <c r="F76" t="s">
         <v>27</v>
       </c>
       <c r="G76">
-        <v>70.55</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="H76">
         <v>5</v>
@@ -2481,25 +2481,25 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B77">
-        <v>229300</v>
+        <v>269600</v>
       </c>
       <c r="C77">
-        <v>96000</v>
+        <v>190200</v>
       </c>
       <c r="D77">
-        <v>0.42</v>
+        <v>0.71</v>
       </c>
       <c r="E77">
-        <v>133300</v>
+        <v>79400</v>
       </c>
       <c r="F77" t="s">
         <v>27</v>
       </c>
       <c r="G77">
-        <v>41.87</v>
+        <v>70.55</v>
       </c>
       <c r="H77">
         <v>6</v>
@@ -2510,22 +2510,22 @@
         <v>13</v>
       </c>
       <c r="B78">
-        <v>85000</v>
+        <v>1262500</v>
       </c>
       <c r="C78">
-        <v>72000</v>
+        <v>608600</v>
       </c>
       <c r="D78">
-        <v>0.85</v>
+        <v>0.48</v>
       </c>
       <c r="E78">
-        <v>13000</v>
+        <v>653900</v>
       </c>
       <c r="F78" t="s">
         <v>27</v>
       </c>
       <c r="G78">
-        <v>84.70999999999999</v>
+        <v>48.21</v>
       </c>
       <c r="H78">
         <v>7</v>
@@ -2533,25 +2533,25 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B79">
-        <v>568000</v>
+        <v>229300</v>
       </c>
       <c r="C79">
-        <v>68000</v>
+        <v>96000</v>
       </c>
       <c r="D79">
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
       <c r="E79">
-        <v>500000</v>
+        <v>133300</v>
       </c>
       <c r="F79" t="s">
         <v>27</v>
       </c>
       <c r="G79">
-        <v>11.97</v>
+        <v>41.87</v>
       </c>
       <c r="H79">
         <v>8</v>
@@ -2559,25 +2559,25 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B80">
-        <v>684400</v>
+        <v>57100</v>
       </c>
       <c r="C80">
-        <v>61200</v>
+        <v>10000</v>
       </c>
       <c r="D80">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="E80">
-        <v>623200</v>
+        <v>47100</v>
       </c>
       <c r="F80" t="s">
         <v>27</v>
       </c>
       <c r="G80">
-        <v>8.94</v>
+        <v>17.51</v>
       </c>
       <c r="H80">
         <v>9</v>
@@ -2588,22 +2588,22 @@
         <v>18</v>
       </c>
       <c r="B81">
-        <v>25100</v>
+        <v>568000</v>
       </c>
       <c r="C81">
-        <v>22100</v>
+        <v>68000</v>
       </c>
       <c r="D81">
-        <v>0.88</v>
+        <v>0.12</v>
       </c>
       <c r="E81">
-        <v>3000</v>
+        <v>500000</v>
       </c>
       <c r="F81" t="s">
         <v>27</v>
       </c>
       <c r="G81">
-        <v>88.05</v>
+        <v>11.97</v>
       </c>
       <c r="H81">
         <v>10</v>
@@ -2640,22 +2640,22 @@
         <v>17</v>
       </c>
       <c r="B83">
-        <v>57100</v>
+        <v>684400</v>
       </c>
       <c r="C83">
-        <v>10000</v>
+        <v>61200</v>
       </c>
       <c r="D83">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="E83">
-        <v>47100</v>
+        <v>623200</v>
       </c>
       <c r="F83" t="s">
         <v>27</v>
       </c>
       <c r="G83">
-        <v>17.51</v>
+        <v>8.94</v>
       </c>
       <c r="H83">
         <v>12</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B84">
         <v>308300</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B85">
         <v>114600</v>
@@ -2718,22 +2718,22 @@
         <v>10</v>
       </c>
       <c r="B86">
-        <v>1175800</v>
+        <v>422400</v>
       </c>
       <c r="C86">
-        <v>1150700</v>
+        <v>418600</v>
       </c>
       <c r="D86">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="E86">
-        <v>25100</v>
+        <v>3800</v>
       </c>
       <c r="F86" t="s">
         <v>28</v>
       </c>
       <c r="G86">
-        <v>97.87</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -2744,22 +2744,22 @@
         <v>8</v>
       </c>
       <c r="B87">
-        <v>872000</v>
+        <v>1175800</v>
       </c>
       <c r="C87">
-        <v>806200</v>
+        <v>1150700</v>
       </c>
       <c r="D87">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="E87">
-        <v>65800</v>
+        <v>25100</v>
       </c>
       <c r="F87" t="s">
         <v>28</v>
       </c>
       <c r="G87">
-        <v>92.45</v>
+        <v>97.87</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -2770,22 +2770,22 @@
         <v>9</v>
       </c>
       <c r="B88">
-        <v>1201000</v>
+        <v>872000</v>
       </c>
       <c r="C88">
-        <v>574200</v>
+        <v>806200</v>
       </c>
       <c r="D88">
-        <v>0.48</v>
+        <v>0.92</v>
       </c>
       <c r="E88">
-        <v>626800</v>
+        <v>65800</v>
       </c>
       <c r="F88" t="s">
         <v>28</v>
       </c>
       <c r="G88">
-        <v>47.81</v>
+        <v>92.45</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -2793,25 +2793,25 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B89">
-        <v>422400</v>
+        <v>22600</v>
       </c>
       <c r="C89">
-        <v>418600</v>
+        <v>18700</v>
       </c>
       <c r="D89">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="E89">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F89" t="s">
         <v>28</v>
       </c>
       <c r="G89">
-        <v>99.09999999999999</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="H89">
         <v>4</v>
@@ -2819,25 +2819,25 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B90">
-        <v>287600</v>
+        <v>57600</v>
       </c>
       <c r="C90">
-        <v>207400</v>
+        <v>47500</v>
       </c>
       <c r="D90">
-        <v>0.72</v>
+        <v>0.82</v>
       </c>
       <c r="E90">
-        <v>80200</v>
+        <v>10100</v>
       </c>
       <c r="F90" t="s">
         <v>28</v>
       </c>
       <c r="G90">
-        <v>72.11</v>
+        <v>82.47</v>
       </c>
       <c r="H90">
         <v>5</v>
@@ -2845,25 +2845,25 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B91">
-        <v>238100</v>
+        <v>287600</v>
       </c>
       <c r="C91">
-        <v>93500</v>
+        <v>207400</v>
       </c>
       <c r="D91">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="E91">
-        <v>144600</v>
+        <v>80200</v>
       </c>
       <c r="F91" t="s">
         <v>28</v>
       </c>
       <c r="G91">
-        <v>39.27</v>
+        <v>72.11</v>
       </c>
       <c r="H91">
         <v>6</v>
@@ -2871,25 +2871,25 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B92">
-        <v>606100</v>
+        <v>1201000</v>
       </c>
       <c r="C92">
-        <v>76700</v>
+        <v>574200</v>
       </c>
       <c r="D92">
-        <v>0.13</v>
+        <v>0.48</v>
       </c>
       <c r="E92">
-        <v>529400</v>
+        <v>626800</v>
       </c>
       <c r="F92" t="s">
         <v>28</v>
       </c>
       <c r="G92">
-        <v>12.65</v>
+        <v>47.81</v>
       </c>
       <c r="H92">
         <v>7</v>
@@ -2897,25 +2897,25 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B93">
-        <v>688900</v>
+        <v>238100</v>
       </c>
       <c r="C93">
-        <v>60300</v>
+        <v>93500</v>
       </c>
       <c r="D93">
-        <v>0.09</v>
+        <v>0.39</v>
       </c>
       <c r="E93">
-        <v>628600</v>
+        <v>144600</v>
       </c>
       <c r="F93" t="s">
         <v>28</v>
       </c>
       <c r="G93">
-        <v>8.75</v>
+        <v>39.27</v>
       </c>
       <c r="H93">
         <v>8</v>
@@ -2923,25 +2923,25 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B94">
-        <v>57600</v>
+        <v>73100</v>
       </c>
       <c r="C94">
-        <v>47500</v>
+        <v>15600</v>
       </c>
       <c r="D94">
-        <v>0.82</v>
+        <v>0.21</v>
       </c>
       <c r="E94">
-        <v>10100</v>
+        <v>57500</v>
       </c>
       <c r="F94" t="s">
         <v>28</v>
       </c>
       <c r="G94">
-        <v>82.47</v>
+        <v>21.34</v>
       </c>
       <c r="H94">
         <v>9</v>
@@ -2952,22 +2952,22 @@
         <v>18</v>
       </c>
       <c r="B95">
-        <v>22600</v>
+        <v>606100</v>
       </c>
       <c r="C95">
-        <v>18700</v>
+        <v>76700</v>
       </c>
       <c r="D95">
-        <v>0.83</v>
+        <v>0.13</v>
       </c>
       <c r="E95">
-        <v>3900</v>
+        <v>529400</v>
       </c>
       <c r="F95" t="s">
         <v>28</v>
       </c>
       <c r="G95">
-        <v>82.73999999999999</v>
+        <v>12.65</v>
       </c>
       <c r="H95">
         <v>10</v>
@@ -2975,25 +2975,25 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B96">
-        <v>73100</v>
+        <v>109100</v>
       </c>
       <c r="C96">
-        <v>15600</v>
+        <v>12600</v>
       </c>
       <c r="D96">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="E96">
-        <v>57500</v>
+        <v>96500</v>
       </c>
       <c r="F96" t="s">
         <v>28</v>
       </c>
       <c r="G96">
-        <v>21.34</v>
+        <v>11.55</v>
       </c>
       <c r="H96">
         <v>11</v>
@@ -3001,25 +3001,25 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B97">
-        <v>109100</v>
+        <v>688900</v>
       </c>
       <c r="C97">
-        <v>12600</v>
+        <v>60300</v>
       </c>
       <c r="D97">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E97">
-        <v>96500</v>
+        <v>628600</v>
       </c>
       <c r="F97" t="s">
         <v>28</v>
       </c>
       <c r="G97">
-        <v>11.55</v>
+        <v>8.75</v>
       </c>
       <c r="H97">
         <v>12</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B98">
         <v>270900</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B99">
         <v>88900</v>
@@ -3079,25 +3079,25 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B100">
-        <v>1194600</v>
+        <v>382700</v>
       </c>
       <c r="C100">
-        <v>1127500</v>
+        <v>378900</v>
       </c>
       <c r="D100">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="E100">
-        <v>67100</v>
+        <v>3800</v>
       </c>
       <c r="F100" t="s">
         <v>29</v>
       </c>
       <c r="G100">
-        <v>94.38</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B101">
         <v>921800</v>
@@ -3134,22 +3134,22 @@
         <v>9</v>
       </c>
       <c r="B102">
-        <v>1383900</v>
+        <v>1194600</v>
       </c>
       <c r="C102">
-        <v>738200</v>
+        <v>1127500</v>
       </c>
       <c r="D102">
-        <v>0.53</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E102">
-        <v>645700</v>
+        <v>67100</v>
       </c>
       <c r="F102" t="s">
         <v>29</v>
       </c>
       <c r="G102">
-        <v>53.34</v>
+        <v>94.38</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -3160,22 +3160,22 @@
         <v>11</v>
       </c>
       <c r="B103">
-        <v>382700</v>
+        <v>85500</v>
       </c>
       <c r="C103">
-        <v>378900</v>
+        <v>73100</v>
       </c>
       <c r="D103">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="E103">
-        <v>3800</v>
+        <v>12400</v>
       </c>
       <c r="F103" t="s">
         <v>29</v>
       </c>
       <c r="G103">
-        <v>99.01000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="H103">
         <v>4</v>
@@ -3183,25 +3183,25 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B104">
-        <v>270000</v>
+        <v>24000</v>
       </c>
       <c r="C104">
-        <v>190000</v>
+        <v>20000</v>
       </c>
       <c r="D104">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
       <c r="E104">
-        <v>80000</v>
+        <v>4000</v>
       </c>
       <c r="F104" t="s">
         <v>29</v>
       </c>
       <c r="G104">
-        <v>70.37</v>
+        <v>83.33</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -3209,25 +3209,25 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105">
-        <v>640500</v>
+        <v>270000</v>
       </c>
       <c r="C105">
-        <v>102400</v>
+        <v>190000</v>
       </c>
       <c r="D105">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
       <c r="E105">
-        <v>538100</v>
+        <v>80000</v>
       </c>
       <c r="F105" t="s">
         <v>29</v>
       </c>
       <c r="G105">
-        <v>15.99</v>
+        <v>70.37</v>
       </c>
       <c r="H105">
         <v>6</v>
@@ -3235,25 +3235,25 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B106">
-        <v>251000</v>
+        <v>1383900</v>
       </c>
       <c r="C106">
-        <v>99200</v>
+        <v>738200</v>
       </c>
       <c r="D106">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="E106">
-        <v>151800</v>
+        <v>645700</v>
       </c>
       <c r="F106" t="s">
         <v>29</v>
       </c>
       <c r="G106">
-        <v>39.52</v>
+        <v>53.34</v>
       </c>
       <c r="H106">
         <v>7</v>
@@ -3261,25 +3261,25 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B107">
-        <v>740400</v>
+        <v>251000</v>
       </c>
       <c r="C107">
-        <v>78100</v>
+        <v>99200</v>
       </c>
       <c r="D107">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="E107">
-        <v>662300</v>
+        <v>151800</v>
       </c>
       <c r="F107" t="s">
         <v>29</v>
       </c>
       <c r="G107">
-        <v>10.55</v>
+        <v>39.52</v>
       </c>
       <c r="H107">
         <v>8</v>
@@ -3287,25 +3287,25 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B108">
-        <v>85500</v>
+        <v>79900</v>
       </c>
       <c r="C108">
-        <v>73100</v>
+        <v>19200</v>
       </c>
       <c r="D108">
-        <v>0.85</v>
+        <v>0.24</v>
       </c>
       <c r="E108">
-        <v>12400</v>
+        <v>60700</v>
       </c>
       <c r="F108" t="s">
         <v>29</v>
       </c>
       <c r="G108">
-        <v>85.5</v>
+        <v>24.03</v>
       </c>
       <c r="H108">
         <v>9</v>
@@ -3316,22 +3316,22 @@
         <v>18</v>
       </c>
       <c r="B109">
-        <v>24000</v>
+        <v>640500</v>
       </c>
       <c r="C109">
-        <v>20000</v>
+        <v>102400</v>
       </c>
       <c r="D109">
-        <v>0.83</v>
+        <v>0.16</v>
       </c>
       <c r="E109">
-        <v>4000</v>
+        <v>538100</v>
       </c>
       <c r="F109" t="s">
         <v>29</v>
       </c>
       <c r="G109">
-        <v>83.33</v>
+        <v>15.99</v>
       </c>
       <c r="H109">
         <v>10</v>
@@ -3339,25 +3339,25 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B110">
-        <v>79900</v>
+        <v>120900</v>
       </c>
       <c r="C110">
-        <v>19200</v>
+        <v>14700</v>
       </c>
       <c r="D110">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="E110">
-        <v>60700</v>
+        <v>106200</v>
       </c>
       <c r="F110" t="s">
         <v>29</v>
       </c>
       <c r="G110">
-        <v>24.03</v>
+        <v>12.16</v>
       </c>
       <c r="H110">
         <v>11</v>
@@ -3365,25 +3365,25 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B111">
-        <v>120900</v>
+        <v>740400</v>
       </c>
       <c r="C111">
-        <v>14700</v>
+        <v>78100</v>
       </c>
       <c r="D111">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E111">
-        <v>106200</v>
+        <v>662300</v>
       </c>
       <c r="F111" t="s">
         <v>29</v>
       </c>
       <c r="G111">
-        <v>12.16</v>
+        <v>10.55</v>
       </c>
       <c r="H111">
         <v>12</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B112">
         <v>307400</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B113">
         <v>114400</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B114">
         <v>1203700</v>
@@ -3469,25 +3469,25 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B115">
-        <v>1239200</v>
+        <v>341600</v>
       </c>
       <c r="C115">
-        <v>1171600</v>
+        <v>335900</v>
       </c>
       <c r="D115">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E115">
-        <v>67600</v>
+        <v>5700</v>
       </c>
       <c r="F115" t="s">
         <v>30</v>
       </c>
       <c r="G115">
-        <v>94.54000000000001</v>
+        <v>98.33</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -3498,22 +3498,22 @@
         <v>9</v>
       </c>
       <c r="B116">
-        <v>1368200</v>
+        <v>1239200</v>
       </c>
       <c r="C116">
-        <v>765000</v>
+        <v>1171600</v>
       </c>
       <c r="D116">
-        <v>0.5600000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="E116">
-        <v>603200</v>
+        <v>67600</v>
       </c>
       <c r="F116" t="s">
         <v>30</v>
       </c>
       <c r="G116">
-        <v>55.91</v>
+        <v>94.54000000000001</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -3524,22 +3524,22 @@
         <v>11</v>
       </c>
       <c r="B117">
-        <v>341600</v>
+        <v>117300</v>
       </c>
       <c r="C117">
-        <v>335900</v>
+        <v>102800</v>
       </c>
       <c r="D117">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="E117">
-        <v>5700</v>
+        <v>14500</v>
       </c>
       <c r="F117" t="s">
         <v>30</v>
       </c>
       <c r="G117">
-        <v>98.33</v>
+        <v>87.64</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -3547,25 +3547,25 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B118">
-        <v>273900</v>
+        <v>22000</v>
       </c>
       <c r="C118">
-        <v>176500</v>
+        <v>18300</v>
       </c>
       <c r="D118">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="E118">
-        <v>97400</v>
+        <v>3700</v>
       </c>
       <c r="F118" t="s">
         <v>30</v>
       </c>
       <c r="G118">
-        <v>64.44</v>
+        <v>83.18000000000001</v>
       </c>
       <c r="H118">
         <v>5</v>
@@ -3573,25 +3573,25 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B119">
-        <v>117300</v>
+        <v>273900</v>
       </c>
       <c r="C119">
-        <v>102800</v>
+        <v>176500</v>
       </c>
       <c r="D119">
-        <v>0.88</v>
+        <v>0.64</v>
       </c>
       <c r="E119">
-        <v>14500</v>
+        <v>97400</v>
       </c>
       <c r="F119" t="s">
         <v>30</v>
       </c>
       <c r="G119">
-        <v>87.64</v>
+        <v>64.44</v>
       </c>
       <c r="H119">
         <v>6</v>
@@ -3599,25 +3599,25 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B120">
-        <v>238800</v>
+        <v>1368200</v>
       </c>
       <c r="C120">
-        <v>89000</v>
+        <v>765000</v>
       </c>
       <c r="D120">
-        <v>0.37</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E120">
-        <v>149800</v>
+        <v>603200</v>
       </c>
       <c r="F120" t="s">
         <v>30</v>
       </c>
       <c r="G120">
-        <v>37.27</v>
+        <v>55.91</v>
       </c>
       <c r="H120">
         <v>7</v>
@@ -3625,25 +3625,25 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B121">
-        <v>733000</v>
+        <v>238800</v>
       </c>
       <c r="C121">
-        <v>77000</v>
+        <v>89000</v>
       </c>
       <c r="D121">
-        <v>0.11</v>
+        <v>0.37</v>
       </c>
       <c r="E121">
-        <v>656000</v>
+        <v>149800</v>
       </c>
       <c r="F121" t="s">
         <v>30</v>
       </c>
       <c r="G121">
-        <v>10.5</v>
+        <v>37.27</v>
       </c>
       <c r="H121">
         <v>8</v>
@@ -3654,22 +3654,22 @@
         <v>16</v>
       </c>
       <c r="B122">
-        <v>675500</v>
+        <v>72800</v>
       </c>
       <c r="C122">
-        <v>69700</v>
+        <v>21400</v>
       </c>
       <c r="D122">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
       <c r="E122">
-        <v>605800</v>
+        <v>51400</v>
       </c>
       <c r="F122" t="s">
         <v>30</v>
       </c>
       <c r="G122">
-        <v>10.32</v>
+        <v>29.4</v>
       </c>
       <c r="H122">
         <v>9</v>
@@ -3677,25 +3677,25 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B123">
-        <v>72800</v>
+        <v>131000</v>
       </c>
       <c r="C123">
-        <v>21400</v>
+        <v>17300</v>
       </c>
       <c r="D123">
-        <v>0.29</v>
+        <v>0.13</v>
       </c>
       <c r="E123">
-        <v>51400</v>
+        <v>113700</v>
       </c>
       <c r="F123" t="s">
         <v>30</v>
       </c>
       <c r="G123">
-        <v>29.4</v>
+        <v>13.21</v>
       </c>
       <c r="H123">
         <v>10</v>
@@ -3703,25 +3703,25 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B124">
-        <v>22000</v>
+        <v>733000</v>
       </c>
       <c r="C124">
-        <v>18300</v>
+        <v>77000</v>
       </c>
       <c r="D124">
-        <v>0.83</v>
+        <v>0.11</v>
       </c>
       <c r="E124">
-        <v>3700</v>
+        <v>656000</v>
       </c>
       <c r="F124" t="s">
         <v>30</v>
       </c>
       <c r="G124">
-        <v>83.18000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="H124">
         <v>11</v>
@@ -3729,25 +3729,25 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B125">
-        <v>131000</v>
+        <v>675500</v>
       </c>
       <c r="C125">
-        <v>17300</v>
+        <v>69700</v>
       </c>
       <c r="D125">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E125">
-        <v>113700</v>
+        <v>605800</v>
       </c>
       <c r="F125" t="s">
         <v>30</v>
       </c>
       <c r="G125">
-        <v>13.21</v>
+        <v>10.32</v>
       </c>
       <c r="H125">
         <v>12</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B126">
         <v>328400</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B127">
         <v>152900</v>
@@ -3810,22 +3810,22 @@
         <v>8</v>
       </c>
       <c r="B128">
-        <v>1386000</v>
+        <v>1291800</v>
       </c>
       <c r="C128">
-        <v>1331200</v>
+        <v>1282700</v>
       </c>
       <c r="D128">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="E128">
-        <v>54800</v>
+        <v>9100</v>
       </c>
       <c r="F128" t="s">
         <v>31</v>
       </c>
       <c r="G128">
-        <v>96.05</v>
+        <v>99.3</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -3836,22 +3836,22 @@
         <v>10</v>
       </c>
       <c r="B129">
-        <v>1291800</v>
+        <v>367800</v>
       </c>
       <c r="C129">
-        <v>1282700</v>
+        <v>358000</v>
       </c>
       <c r="D129">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E129">
-        <v>9100</v>
+        <v>9800</v>
       </c>
       <c r="F129" t="s">
         <v>31</v>
       </c>
       <c r="G129">
-        <v>99.3</v>
+        <v>97.34</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -3862,22 +3862,22 @@
         <v>9</v>
       </c>
       <c r="B130">
-        <v>1252000</v>
+        <v>1386000</v>
       </c>
       <c r="C130">
-        <v>696700</v>
+        <v>1331200</v>
       </c>
       <c r="D130">
-        <v>0.5600000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="E130">
-        <v>555300</v>
+        <v>54800</v>
       </c>
       <c r="F130" t="s">
         <v>31</v>
       </c>
       <c r="G130">
-        <v>55.65</v>
+        <v>96.05</v>
       </c>
       <c r="H130">
         <v>3</v>
@@ -3885,25 +3885,25 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B131">
-        <v>367800</v>
+        <v>18400</v>
       </c>
       <c r="C131">
-        <v>358000</v>
+        <v>16100</v>
       </c>
       <c r="D131">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="E131">
-        <v>9800</v>
+        <v>2300</v>
       </c>
       <c r="F131" t="s">
         <v>31</v>
       </c>
       <c r="G131">
-        <v>97.34</v>
+        <v>87.5</v>
       </c>
       <c r="H131">
         <v>4</v>
@@ -3911,25 +3911,25 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B132">
-        <v>343800</v>
+        <v>122500</v>
       </c>
       <c r="C132">
-        <v>236000</v>
+        <v>97300</v>
       </c>
       <c r="D132">
-        <v>0.6899999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="E132">
-        <v>107800</v>
+        <v>25200</v>
       </c>
       <c r="F132" t="s">
         <v>31</v>
       </c>
       <c r="G132">
-        <v>68.64</v>
+        <v>79.43000000000001</v>
       </c>
       <c r="H132">
         <v>5</v>
@@ -3937,25 +3937,25 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B133">
-        <v>247800</v>
+        <v>343800</v>
       </c>
       <c r="C133">
-        <v>108000</v>
+        <v>236000</v>
       </c>
       <c r="D133">
-        <v>0.44</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E133">
-        <v>139800</v>
+        <v>107800</v>
       </c>
       <c r="F133" t="s">
         <v>31</v>
       </c>
       <c r="G133">
-        <v>43.58</v>
+        <v>68.64</v>
       </c>
       <c r="H133">
         <v>6</v>
@@ -3966,22 +3966,22 @@
         <v>13</v>
       </c>
       <c r="B134">
-        <v>122500</v>
+        <v>1252000</v>
       </c>
       <c r="C134">
-        <v>97300</v>
+        <v>696700</v>
       </c>
       <c r="D134">
-        <v>0.79</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E134">
-        <v>25200</v>
+        <v>555300</v>
       </c>
       <c r="F134" t="s">
         <v>31</v>
       </c>
       <c r="G134">
-        <v>79.43000000000001</v>
+        <v>55.65</v>
       </c>
       <c r="H134">
         <v>7</v>
@@ -3989,25 +3989,25 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B135">
-        <v>703200</v>
+        <v>247800</v>
       </c>
       <c r="C135">
-        <v>85100</v>
+        <v>108000</v>
       </c>
       <c r="D135">
-        <v>0.12</v>
+        <v>0.44</v>
       </c>
       <c r="E135">
-        <v>618100</v>
+        <v>139800</v>
       </c>
       <c r="F135" t="s">
         <v>31</v>
       </c>
       <c r="G135">
-        <v>12.1</v>
+        <v>43.58</v>
       </c>
       <c r="H135">
         <v>8</v>
@@ -4015,25 +4015,25 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B136">
-        <v>803400</v>
+        <v>74900</v>
       </c>
       <c r="C136">
-        <v>82100</v>
+        <v>19500</v>
       </c>
       <c r="D136">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="E136">
-        <v>721300</v>
+        <v>55400</v>
       </c>
       <c r="F136" t="s">
         <v>31</v>
       </c>
       <c r="G136">
-        <v>10.22</v>
+        <v>26.03</v>
       </c>
       <c r="H136">
         <v>9</v>
@@ -4041,25 +4041,25 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B137">
-        <v>74900</v>
+        <v>703200</v>
       </c>
       <c r="C137">
-        <v>19500</v>
+        <v>85100</v>
       </c>
       <c r="D137">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="E137">
-        <v>55400</v>
+        <v>618100</v>
       </c>
       <c r="F137" t="s">
         <v>31</v>
       </c>
       <c r="G137">
-        <v>26.03</v>
+        <v>12.1</v>
       </c>
       <c r="H137">
         <v>10</v>
@@ -4093,25 +4093,25 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B139">
-        <v>18400</v>
+        <v>803400</v>
       </c>
       <c r="C139">
-        <v>16100</v>
+        <v>82100</v>
       </c>
       <c r="D139">
-        <v>0.88</v>
+        <v>0.1</v>
       </c>
       <c r="E139">
-        <v>2300</v>
+        <v>721300</v>
       </c>
       <c r="F139" t="s">
         <v>31</v>
       </c>
       <c r="G139">
-        <v>87.5</v>
+        <v>10.22</v>
       </c>
       <c r="H139">
         <v>12</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B140">
         <v>338400</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B141">
         <v>160200</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B142">
         <v>1695300</v>
@@ -4197,25 +4197,25 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B143">
-        <v>1416000</v>
+        <v>353700</v>
       </c>
       <c r="C143">
-        <v>1369200</v>
+        <v>344800</v>
       </c>
       <c r="D143">
         <v>0.97</v>
       </c>
       <c r="E143">
-        <v>46800</v>
+        <v>8900</v>
       </c>
       <c r="F143" t="s">
         <v>32</v>
       </c>
       <c r="G143">
-        <v>96.69</v>
+        <v>97.48</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -4226,22 +4226,22 @@
         <v>9</v>
       </c>
       <c r="B144">
-        <v>1261100</v>
+        <v>1416000</v>
       </c>
       <c r="C144">
-        <v>679400</v>
+        <v>1369200</v>
       </c>
       <c r="D144">
-        <v>0.54</v>
+        <v>0.97</v>
       </c>
       <c r="E144">
-        <v>581700</v>
+        <v>46800</v>
       </c>
       <c r="F144" t="s">
         <v>32</v>
       </c>
       <c r="G144">
-        <v>53.87</v>
+        <v>96.69</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -4249,25 +4249,25 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B145">
-        <v>353700</v>
+        <v>21600</v>
       </c>
       <c r="C145">
-        <v>344800</v>
+        <v>19000</v>
       </c>
       <c r="D145">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="E145">
-        <v>8900</v>
+        <v>2600</v>
       </c>
       <c r="F145" t="s">
         <v>32</v>
       </c>
       <c r="G145">
-        <v>97.48</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -4275,25 +4275,25 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B146">
-        <v>332400</v>
+        <v>135100</v>
       </c>
       <c r="C146">
-        <v>254600</v>
+        <v>114000</v>
       </c>
       <c r="D146">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="E146">
-        <v>77800</v>
+        <v>21100</v>
       </c>
       <c r="F146" t="s">
         <v>32</v>
       </c>
       <c r="G146">
-        <v>76.59</v>
+        <v>84.38</v>
       </c>
       <c r="H146">
         <v>5</v>
@@ -4301,25 +4301,25 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B147">
-        <v>252600</v>
+        <v>332400</v>
       </c>
       <c r="C147">
-        <v>120900</v>
+        <v>254600</v>
       </c>
       <c r="D147">
-        <v>0.48</v>
+        <v>0.77</v>
       </c>
       <c r="E147">
-        <v>131700</v>
+        <v>77800</v>
       </c>
       <c r="F147" t="s">
         <v>32</v>
       </c>
       <c r="G147">
-        <v>47.86</v>
+        <v>76.59</v>
       </c>
       <c r="H147">
         <v>6</v>
@@ -4330,22 +4330,22 @@
         <v>13</v>
       </c>
       <c r="B148">
-        <v>135100</v>
+        <v>1261100</v>
       </c>
       <c r="C148">
-        <v>114000</v>
+        <v>679400</v>
       </c>
       <c r="D148">
-        <v>0.84</v>
+        <v>0.54</v>
       </c>
       <c r="E148">
-        <v>21100</v>
+        <v>581700</v>
       </c>
       <c r="F148" t="s">
         <v>32</v>
       </c>
       <c r="G148">
-        <v>84.38</v>
+        <v>53.87</v>
       </c>
       <c r="H148">
         <v>7</v>
@@ -4353,25 +4353,25 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B149">
-        <v>796000</v>
+        <v>252600</v>
       </c>
       <c r="C149">
-        <v>100000</v>
+        <v>120900</v>
       </c>
       <c r="D149">
-        <v>0.13</v>
+        <v>0.48</v>
       </c>
       <c r="E149">
-        <v>696000</v>
+        <v>131700</v>
       </c>
       <c r="F149" t="s">
         <v>32</v>
       </c>
       <c r="G149">
-        <v>12.56</v>
+        <v>47.86</v>
       </c>
       <c r="H149">
         <v>8</v>
@@ -4379,25 +4379,25 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B150">
-        <v>832200</v>
+        <v>73500</v>
       </c>
       <c r="C150">
-        <v>91100</v>
+        <v>14600</v>
       </c>
       <c r="D150">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="E150">
-        <v>741100</v>
+        <v>58900</v>
       </c>
       <c r="F150" t="s">
         <v>32</v>
       </c>
       <c r="G150">
-        <v>10.95</v>
+        <v>19.86</v>
       </c>
       <c r="H150">
         <v>9</v>
@@ -4408,22 +4408,22 @@
         <v>18</v>
       </c>
       <c r="B151">
-        <v>21600</v>
+        <v>796000</v>
       </c>
       <c r="C151">
-        <v>19000</v>
+        <v>100000</v>
       </c>
       <c r="D151">
-        <v>0.88</v>
+        <v>0.13</v>
       </c>
       <c r="E151">
-        <v>2600</v>
+        <v>696000</v>
       </c>
       <c r="F151" t="s">
         <v>32</v>
       </c>
       <c r="G151">
-        <v>87.95999999999999</v>
+        <v>12.56</v>
       </c>
       <c r="H151">
         <v>10</v>
@@ -4431,25 +4431,25 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B152">
-        <v>156600</v>
+        <v>832200</v>
       </c>
       <c r="C152">
-        <v>16300</v>
+        <v>91100</v>
       </c>
       <c r="D152">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E152">
-        <v>140300</v>
+        <v>741100</v>
       </c>
       <c r="F152" t="s">
         <v>32</v>
       </c>
       <c r="G152">
-        <v>10.41</v>
+        <v>10.95</v>
       </c>
       <c r="H152">
         <v>11</v>
@@ -4457,25 +4457,25 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B153">
-        <v>73500</v>
+        <v>156600</v>
       </c>
       <c r="C153">
-        <v>14600</v>
+        <v>16300</v>
       </c>
       <c r="D153">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E153">
-        <v>58900</v>
+        <v>140300</v>
       </c>
       <c r="F153" t="s">
         <v>32</v>
       </c>
       <c r="G153">
-        <v>19.86</v>
+        <v>10.41</v>
       </c>
       <c r="H153">
         <v>12</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B154">
         <v>190600</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B155">
         <v>334800</v>
@@ -4538,22 +4538,22 @@
         <v>8</v>
       </c>
       <c r="B156">
-        <v>1445900</v>
+        <v>1269700</v>
       </c>
       <c r="C156">
-        <v>1388900</v>
+        <v>1260000</v>
       </c>
       <c r="D156">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="E156">
-        <v>57000</v>
+        <v>9700</v>
       </c>
       <c r="F156" t="s">
         <v>33</v>
       </c>
       <c r="G156">
-        <v>96.06</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -4564,22 +4564,22 @@
         <v>10</v>
       </c>
       <c r="B157">
-        <v>1269700</v>
+        <v>366300</v>
       </c>
       <c r="C157">
-        <v>1260000</v>
+        <v>361200</v>
       </c>
       <c r="D157">
         <v>0.99</v>
       </c>
       <c r="E157">
-        <v>9700</v>
+        <v>5100</v>
       </c>
       <c r="F157" t="s">
         <v>33</v>
       </c>
       <c r="G157">
-        <v>99.23999999999999</v>
+        <v>98.61</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -4590,22 +4590,22 @@
         <v>9</v>
       </c>
       <c r="B158">
-        <v>1237400</v>
+        <v>1445900</v>
       </c>
       <c r="C158">
-        <v>646500</v>
+        <v>1388900</v>
       </c>
       <c r="D158">
-        <v>0.52</v>
+        <v>0.96</v>
       </c>
       <c r="E158">
-        <v>590800</v>
+        <v>57000</v>
       </c>
       <c r="F158" t="s">
         <v>33</v>
       </c>
       <c r="G158">
-        <v>52.25</v>
+        <v>96.06</v>
       </c>
       <c r="H158">
         <v>3</v>
@@ -4613,25 +4613,25 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B159">
-        <v>366300</v>
+        <v>26200</v>
       </c>
       <c r="C159">
-        <v>361200</v>
+        <v>23100</v>
       </c>
       <c r="D159">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="E159">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="F159" t="s">
         <v>33</v>
       </c>
       <c r="G159">
-        <v>98.61</v>
+        <v>88.17</v>
       </c>
       <c r="H159">
         <v>4</v>
@@ -4639,25 +4639,25 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B160">
-        <v>367900</v>
+        <v>118400</v>
       </c>
       <c r="C160">
-        <v>293400</v>
+        <v>94700</v>
       </c>
       <c r="D160">
         <v>0.8</v>
       </c>
       <c r="E160">
-        <v>74500</v>
+        <v>23700</v>
       </c>
       <c r="F160" t="s">
         <v>33</v>
       </c>
       <c r="G160">
-        <v>79.75</v>
+        <v>79.98</v>
       </c>
       <c r="H160">
         <v>5</v>
@@ -4665,25 +4665,25 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B161">
-        <v>278300</v>
+        <v>367900</v>
       </c>
       <c r="C161">
-        <v>163000</v>
+        <v>293400</v>
       </c>
       <c r="D161">
-        <v>0.59</v>
+        <v>0.8</v>
       </c>
       <c r="E161">
-        <v>115300</v>
+        <v>74500</v>
       </c>
       <c r="F161" t="s">
         <v>33</v>
       </c>
       <c r="G161">
-        <v>58.57</v>
+        <v>79.75</v>
       </c>
       <c r="H161">
         <v>6</v>
@@ -4691,25 +4691,25 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B162">
-        <v>788600</v>
+        <v>278300</v>
       </c>
       <c r="C162">
-        <v>101400</v>
+        <v>163000</v>
       </c>
       <c r="D162">
-        <v>0.13</v>
+        <v>0.59</v>
       </c>
       <c r="E162">
-        <v>687200</v>
+        <v>115300</v>
       </c>
       <c r="F162" t="s">
         <v>33</v>
       </c>
       <c r="G162">
-        <v>12.86</v>
+        <v>58.57</v>
       </c>
       <c r="H162">
         <v>7</v>
@@ -4720,22 +4720,22 @@
         <v>13</v>
       </c>
       <c r="B163">
-        <v>118400</v>
+        <v>1237400</v>
       </c>
       <c r="C163">
-        <v>94700</v>
+        <v>646500</v>
       </c>
       <c r="D163">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
       <c r="E163">
-        <v>23700</v>
+        <v>590800</v>
       </c>
       <c r="F163" t="s">
         <v>33</v>
       </c>
       <c r="G163">
-        <v>79.98</v>
+        <v>52.25</v>
       </c>
       <c r="H163">
         <v>8</v>
@@ -4743,25 +4743,25 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B164">
-        <v>869000</v>
+        <v>79500</v>
       </c>
       <c r="C164">
-        <v>80000</v>
+        <v>15700</v>
       </c>
       <c r="D164">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="E164">
-        <v>789000</v>
+        <v>63800</v>
       </c>
       <c r="F164" t="s">
         <v>33</v>
       </c>
       <c r="G164">
-        <v>9.210000000000001</v>
+        <v>19.75</v>
       </c>
       <c r="H164">
         <v>9</v>
@@ -4769,25 +4769,25 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B165">
-        <v>26200</v>
+        <v>148500</v>
       </c>
       <c r="C165">
-        <v>23100</v>
+        <v>21700</v>
       </c>
       <c r="D165">
-        <v>0.88</v>
+        <v>0.15</v>
       </c>
       <c r="E165">
-        <v>3100</v>
+        <v>126800</v>
       </c>
       <c r="F165" t="s">
         <v>33</v>
       </c>
       <c r="G165">
-        <v>88.17</v>
+        <v>14.61</v>
       </c>
       <c r="H165">
         <v>10</v>
@@ -4795,25 +4795,25 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B166">
-        <v>148500</v>
+        <v>788600</v>
       </c>
       <c r="C166">
-        <v>21700</v>
+        <v>101400</v>
       </c>
       <c r="D166">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E166">
-        <v>126800</v>
+        <v>687200</v>
       </c>
       <c r="F166" t="s">
         <v>33</v>
       </c>
       <c r="G166">
-        <v>14.61</v>
+        <v>12.86</v>
       </c>
       <c r="H166">
         <v>11</v>
@@ -4850,22 +4850,22 @@
         <v>17</v>
       </c>
       <c r="B168">
-        <v>79500</v>
+        <v>869000</v>
       </c>
       <c r="C168">
-        <v>15700</v>
+        <v>80000</v>
       </c>
       <c r="D168">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="E168">
-        <v>63800</v>
+        <v>789000</v>
       </c>
       <c r="F168" t="s">
         <v>33</v>
       </c>
       <c r="G168">
-        <v>19.75</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="H168">
         <v>13</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B169">
         <v>360100</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B170">
         <v>1411800</v>
@@ -4925,25 +4925,25 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B171">
-        <v>1348500</v>
+        <v>369900</v>
       </c>
       <c r="C171">
-        <v>1333300</v>
+        <v>365800</v>
       </c>
       <c r="D171">
         <v>0.99</v>
       </c>
       <c r="E171">
-        <v>15200</v>
+        <v>4100</v>
       </c>
       <c r="F171" t="s">
         <v>34</v>
       </c>
       <c r="G171">
-        <v>98.87</v>
+        <v>98.89</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -4954,22 +4954,22 @@
         <v>9</v>
       </c>
       <c r="B172">
-        <v>1192200</v>
+        <v>1348500</v>
       </c>
       <c r="C172">
-        <v>603700</v>
+        <v>1333300</v>
       </c>
       <c r="D172">
-        <v>0.51</v>
+        <v>0.99</v>
       </c>
       <c r="E172">
-        <v>588500</v>
+        <v>15200</v>
       </c>
       <c r="F172" t="s">
         <v>34</v>
       </c>
       <c r="G172">
-        <v>50.64</v>
+        <v>98.87</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -4977,25 +4977,25 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B173">
-        <v>369900</v>
+        <v>35500</v>
       </c>
       <c r="C173">
-        <v>365800</v>
+        <v>32800</v>
       </c>
       <c r="D173">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="E173">
-        <v>4100</v>
+        <v>2700</v>
       </c>
       <c r="F173" t="s">
         <v>34</v>
       </c>
       <c r="G173">
-        <v>98.89</v>
+        <v>92.39</v>
       </c>
       <c r="H173">
         <v>4</v>
@@ -5003,25 +5003,25 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B174">
-        <v>370600</v>
+        <v>180000</v>
       </c>
       <c r="C174">
-        <v>293700</v>
+        <v>160400</v>
       </c>
       <c r="D174">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="E174">
-        <v>76900</v>
+        <v>19600</v>
       </c>
       <c r="F174" t="s">
         <v>34</v>
       </c>
       <c r="G174">
-        <v>79.25</v>
+        <v>89.11</v>
       </c>
       <c r="H174">
         <v>5</v>
@@ -5029,25 +5029,25 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B175">
-        <v>362000</v>
+        <v>370600</v>
       </c>
       <c r="C175">
-        <v>237200</v>
+        <v>293700</v>
       </c>
       <c r="D175">
-        <v>0.66</v>
+        <v>0.79</v>
       </c>
       <c r="E175">
-        <v>124800</v>
+        <v>76900</v>
       </c>
       <c r="F175" t="s">
         <v>34</v>
       </c>
       <c r="G175">
-        <v>65.52</v>
+        <v>79.25</v>
       </c>
       <c r="H175">
         <v>6</v>
@@ -5055,25 +5055,25 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B176">
-        <v>180000</v>
+        <v>362000</v>
       </c>
       <c r="C176">
-        <v>160400</v>
+        <v>237200</v>
       </c>
       <c r="D176">
-        <v>0.89</v>
+        <v>0.66</v>
       </c>
       <c r="E176">
-        <v>19600</v>
+        <v>124800</v>
       </c>
       <c r="F176" t="s">
         <v>34</v>
       </c>
       <c r="G176">
-        <v>89.11</v>
+        <v>65.52</v>
       </c>
       <c r="H176">
         <v>7</v>
@@ -5081,25 +5081,25 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B177">
-        <v>785500</v>
+        <v>1192200</v>
       </c>
       <c r="C177">
-        <v>104100</v>
+        <v>603700</v>
       </c>
       <c r="D177">
-        <v>0.13</v>
+        <v>0.51</v>
       </c>
       <c r="E177">
-        <v>681400</v>
+        <v>588500</v>
       </c>
       <c r="F177" t="s">
         <v>34</v>
       </c>
       <c r="G177">
-        <v>13.25</v>
+        <v>50.64</v>
       </c>
       <c r="H177">
         <v>8</v>
@@ -5107,25 +5107,25 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B178">
-        <v>824600</v>
+        <v>75200</v>
       </c>
       <c r="C178">
-        <v>57800</v>
+        <v>14600</v>
       </c>
       <c r="D178">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="E178">
-        <v>766800</v>
+        <v>60600</v>
       </c>
       <c r="F178" t="s">
         <v>34</v>
       </c>
       <c r="G178">
-        <v>7.01</v>
+        <v>19.41</v>
       </c>
       <c r="H178">
         <v>9</v>
@@ -5136,22 +5136,22 @@
         <v>18</v>
       </c>
       <c r="B179">
-        <v>35500</v>
+        <v>785500</v>
       </c>
       <c r="C179">
-        <v>32800</v>
+        <v>104100</v>
       </c>
       <c r="D179">
-        <v>0.92</v>
+        <v>0.13</v>
       </c>
       <c r="E179">
-        <v>2700</v>
+        <v>681400</v>
       </c>
       <c r="F179" t="s">
         <v>34</v>
       </c>
       <c r="G179">
-        <v>92.39</v>
+        <v>13.25</v>
       </c>
       <c r="H179">
         <v>10</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B180">
         <v>196000</v>
@@ -5185,25 +5185,25 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B181">
-        <v>75200</v>
+        <v>156700</v>
       </c>
       <c r="C181">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="D181">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="E181">
-        <v>60600</v>
+        <v>144200</v>
       </c>
       <c r="F181" t="s">
         <v>34</v>
       </c>
       <c r="G181">
-        <v>19.41</v>
+        <v>7.98</v>
       </c>
       <c r="H181">
         <v>12</v>
@@ -5211,25 +5211,25 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B182">
-        <v>156700</v>
+        <v>824600</v>
       </c>
       <c r="C182">
-        <v>12500</v>
+        <v>57800</v>
       </c>
       <c r="D182">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E182">
-        <v>144200</v>
+        <v>766800</v>
       </c>
       <c r="F182" t="s">
         <v>34</v>
       </c>
       <c r="G182">
-        <v>7.98</v>
+        <v>7.01</v>
       </c>
       <c r="H182">
         <v>13</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B183">
         <v>365000</v>
@@ -5263,25 +5263,25 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B184">
-        <v>1595400</v>
+        <v>1357500</v>
       </c>
       <c r="C184">
-        <v>1585700</v>
+        <v>1351500</v>
       </c>
       <c r="D184">
         <v>0.99</v>
       </c>
       <c r="E184">
-        <v>9700</v>
+        <v>6000</v>
       </c>
       <c r="F184" t="s">
         <v>35</v>
       </c>
       <c r="G184">
-        <v>99.39</v>
+        <v>99.56</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -5292,22 +5292,22 @@
         <v>8</v>
       </c>
       <c r="B185">
-        <v>1357500</v>
+        <v>1595400</v>
       </c>
       <c r="C185">
-        <v>1351500</v>
+        <v>1585700</v>
       </c>
       <c r="D185">
         <v>0.99</v>
       </c>
       <c r="E185">
-        <v>6000</v>
+        <v>9700</v>
       </c>
       <c r="F185" t="s">
         <v>35</v>
       </c>
       <c r="G185">
-        <v>99.56</v>
+        <v>99.39</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -5315,25 +5315,25 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B186">
-        <v>1183100</v>
+        <v>97200</v>
       </c>
       <c r="C186">
-        <v>607100</v>
+        <v>95900</v>
       </c>
       <c r="D186">
-        <v>0.51</v>
+        <v>0.99</v>
       </c>
       <c r="E186">
-        <v>576000</v>
+        <v>1300</v>
       </c>
       <c r="F186" t="s">
         <v>35</v>
       </c>
       <c r="G186">
-        <v>51.31</v>
+        <v>98.66</v>
       </c>
       <c r="H186">
         <v>3</v>
@@ -5341,25 +5341,25 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B187">
-        <v>530700</v>
+        <v>251100</v>
       </c>
       <c r="C187">
-        <v>411600</v>
+        <v>247000</v>
       </c>
       <c r="D187">
-        <v>0.78</v>
+        <v>0.98</v>
       </c>
       <c r="E187">
-        <v>119100</v>
+        <v>4100</v>
       </c>
       <c r="F187" t="s">
         <v>35</v>
       </c>
       <c r="G187">
-        <v>77.56</v>
+        <v>98.37</v>
       </c>
       <c r="H187">
         <v>4</v>
@@ -5367,25 +5367,25 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B188">
-        <v>251100</v>
+        <v>32700</v>
       </c>
       <c r="C188">
-        <v>247000</v>
+        <v>29700</v>
       </c>
       <c r="D188">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="E188">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="F188" t="s">
         <v>35</v>
       </c>
       <c r="G188">
-        <v>98.37</v>
+        <v>90.83</v>
       </c>
       <c r="H188">
         <v>5</v>
@@ -5393,25 +5393,25 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B189">
-        <v>320500</v>
+        <v>530700</v>
       </c>
       <c r="C189">
-        <v>209000</v>
+        <v>411600</v>
       </c>
       <c r="D189">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="E189">
-        <v>111500</v>
+        <v>119100</v>
       </c>
       <c r="F189" t="s">
         <v>35</v>
       </c>
       <c r="G189">
-        <v>65.20999999999999</v>
+        <v>77.56</v>
       </c>
       <c r="H189">
         <v>6</v>
@@ -5419,25 +5419,25 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B190">
-        <v>791000</v>
+        <v>320500</v>
       </c>
       <c r="C190">
-        <v>111100</v>
+        <v>209000</v>
       </c>
       <c r="D190">
-        <v>0.14</v>
+        <v>0.65</v>
       </c>
       <c r="E190">
-        <v>679900</v>
+        <v>111500</v>
       </c>
       <c r="F190" t="s">
         <v>35</v>
       </c>
       <c r="G190">
-        <v>14.05</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="H190">
         <v>7</v>
@@ -5448,22 +5448,22 @@
         <v>13</v>
       </c>
       <c r="B191">
-        <v>97200</v>
+        <v>1183100</v>
       </c>
       <c r="C191">
-        <v>95900</v>
+        <v>607100</v>
       </c>
       <c r="D191">
-        <v>0.99</v>
+        <v>0.51</v>
       </c>
       <c r="E191">
-        <v>1300</v>
+        <v>576000</v>
       </c>
       <c r="F191" t="s">
         <v>35</v>
       </c>
       <c r="G191">
-        <v>98.66</v>
+        <v>51.31</v>
       </c>
       <c r="H191">
         <v>8</v>
@@ -5471,25 +5471,25 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B192">
-        <v>822200</v>
+        <v>72300</v>
       </c>
       <c r="C192">
-        <v>59500</v>
+        <v>14700</v>
       </c>
       <c r="D192">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E192">
-        <v>762700</v>
+        <v>57600</v>
       </c>
       <c r="F192" t="s">
         <v>35</v>
       </c>
       <c r="G192">
-        <v>7.24</v>
+        <v>20.33</v>
       </c>
       <c r="H192">
         <v>9</v>
@@ -5500,22 +5500,22 @@
         <v>18</v>
       </c>
       <c r="B193">
-        <v>32700</v>
+        <v>791000</v>
       </c>
       <c r="C193">
-        <v>29700</v>
+        <v>111100</v>
       </c>
       <c r="D193">
-        <v>0.91</v>
+        <v>0.14</v>
       </c>
       <c r="E193">
-        <v>3000</v>
+        <v>679900</v>
       </c>
       <c r="F193" t="s">
         <v>35</v>
       </c>
       <c r="G193">
-        <v>90.83</v>
+        <v>14.05</v>
       </c>
       <c r="H193">
         <v>10</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B194">
         <v>227300</v>
@@ -5552,22 +5552,22 @@
         <v>17</v>
       </c>
       <c r="B195">
-        <v>72300</v>
+        <v>822200</v>
       </c>
       <c r="C195">
-        <v>14700</v>
+        <v>59500</v>
       </c>
       <c r="D195">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E195">
-        <v>57600</v>
+        <v>762700</v>
       </c>
       <c r="F195" t="s">
         <v>35</v>
       </c>
       <c r="G195">
-        <v>20.33</v>
+        <v>7.24</v>
       </c>
       <c r="H195">
         <v>12</v>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B197">
         <v>382500</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B198">
         <v>1609000</v>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B199">
         <v>1379000</v>
@@ -5679,25 +5679,25 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B200">
-        <v>1145000</v>
+        <v>273000</v>
       </c>
       <c r="C200">
-        <v>569000</v>
+        <v>269000</v>
       </c>
       <c r="D200">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="E200">
-        <v>576000</v>
+        <v>3000</v>
       </c>
       <c r="F200" t="s">
         <v>36</v>
       </c>
       <c r="G200">
-        <v>49.69</v>
+        <v>98.53</v>
       </c>
       <c r="H200">
         <v>3</v>
@@ -5705,25 +5705,25 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B201">
-        <v>424000</v>
+        <v>94000</v>
       </c>
       <c r="C201">
-        <v>327000</v>
+        <v>92000</v>
       </c>
       <c r="D201">
-        <v>0.77</v>
+        <v>0.98</v>
       </c>
       <c r="E201">
-        <v>97000</v>
+        <v>2000</v>
       </c>
       <c r="F201" t="s">
         <v>36</v>
       </c>
       <c r="G201">
-        <v>77.12</v>
+        <v>97.87</v>
       </c>
       <c r="H201">
         <v>4</v>
@@ -5731,16 +5731,16 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B202">
-        <v>273000</v>
+        <v>36000</v>
       </c>
       <c r="C202">
-        <v>269000</v>
+        <v>33000</v>
       </c>
       <c r="D202">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="E202">
         <v>3000</v>
@@ -5749,7 +5749,7 @@
         <v>36</v>
       </c>
       <c r="G202">
-        <v>98.53</v>
+        <v>91.67</v>
       </c>
       <c r="H202">
         <v>5</v>
@@ -5757,25 +5757,25 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B203">
-        <v>328000</v>
+        <v>424000</v>
       </c>
       <c r="C203">
-        <v>221000</v>
+        <v>327000</v>
       </c>
       <c r="D203">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="E203">
-        <v>108000</v>
+        <v>97000</v>
       </c>
       <c r="F203" t="s">
         <v>36</v>
       </c>
       <c r="G203">
-        <v>67.38</v>
+        <v>77.12</v>
       </c>
       <c r="H203">
         <v>6</v>
@@ -5783,25 +5783,25 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B204">
-        <v>810000</v>
+        <v>328000</v>
       </c>
       <c r="C204">
-        <v>133000</v>
+        <v>221000</v>
       </c>
       <c r="D204">
-        <v>0.16</v>
+        <v>0.67</v>
       </c>
       <c r="E204">
-        <v>677000</v>
+        <v>108000</v>
       </c>
       <c r="F204" t="s">
         <v>36</v>
       </c>
       <c r="G204">
-        <v>16.42</v>
+        <v>67.38</v>
       </c>
       <c r="H204">
         <v>7</v>
@@ -5812,22 +5812,22 @@
         <v>13</v>
       </c>
       <c r="B205">
-        <v>94000</v>
+        <v>1145000</v>
       </c>
       <c r="C205">
-        <v>92000</v>
+        <v>569000</v>
       </c>
       <c r="D205">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="E205">
-        <v>2000</v>
+        <v>576000</v>
       </c>
       <c r="F205" t="s">
         <v>36</v>
       </c>
       <c r="G205">
-        <v>97.87</v>
+        <v>49.69</v>
       </c>
       <c r="H205">
         <v>8</v>
@@ -5835,25 +5835,25 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B206">
-        <v>815000</v>
+        <v>71000</v>
       </c>
       <c r="C206">
-        <v>52000</v>
+        <v>12000</v>
       </c>
       <c r="D206">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="E206">
-        <v>763000</v>
+        <v>59000</v>
       </c>
       <c r="F206" t="s">
         <v>36</v>
       </c>
       <c r="G206">
-        <v>6.38</v>
+        <v>16.9</v>
       </c>
       <c r="H206">
         <v>9</v>
@@ -5864,22 +5864,22 @@
         <v>18</v>
       </c>
       <c r="B207">
-        <v>36000</v>
+        <v>810000</v>
       </c>
       <c r="C207">
-        <v>33000</v>
+        <v>133000</v>
       </c>
       <c r="D207">
-        <v>0.92</v>
+        <v>0.16</v>
       </c>
       <c r="E207">
-        <v>3000</v>
+        <v>677000</v>
       </c>
       <c r="F207" t="s">
         <v>36</v>
       </c>
       <c r="G207">
-        <v>91.67</v>
+        <v>16.42</v>
       </c>
       <c r="H207">
         <v>10</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B208">
         <v>243000</v>
@@ -5913,25 +5913,25 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B209">
-        <v>71000</v>
+        <v>151000</v>
       </c>
       <c r="C209">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="D209">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="E209">
-        <v>59000</v>
+        <v>141000</v>
       </c>
       <c r="F209" t="s">
         <v>36</v>
       </c>
       <c r="G209">
-        <v>16.9</v>
+        <v>6.62</v>
       </c>
       <c r="H209">
         <v>12</v>
@@ -5939,25 +5939,25 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B210">
-        <v>151000</v>
+        <v>815000</v>
       </c>
       <c r="C210">
-        <v>10000</v>
+        <v>52000</v>
       </c>
       <c r="D210">
         <v>0.06</v>
       </c>
       <c r="E210">
-        <v>141000</v>
+        <v>763000</v>
       </c>
       <c r="F210" t="s">
         <v>36</v>
       </c>
       <c r="G210">
-        <v>6.62</v>
+        <v>6.38</v>
       </c>
       <c r="H210">
         <v>13</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B211">
         <v>326000</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B212">
         <v>1624000</v>
@@ -6017,25 +6017,25 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B213">
-        <v>1269000</v>
+        <v>171000</v>
       </c>
       <c r="C213">
-        <v>1260000</v>
+        <v>170000</v>
       </c>
       <c r="D213">
         <v>0.99</v>
       </c>
       <c r="E213">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="F213" t="s">
         <v>37</v>
       </c>
       <c r="G213">
-        <v>99.29000000000001</v>
+        <v>99.42</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -6046,22 +6046,22 @@
         <v>9</v>
       </c>
       <c r="B214">
-        <v>1054000</v>
+        <v>1269000</v>
       </c>
       <c r="C214">
-        <v>586000</v>
+        <v>1260000</v>
       </c>
       <c r="D214">
-        <v>0.5600000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="E214">
-        <v>467000</v>
+        <v>9000</v>
       </c>
       <c r="F214" t="s">
         <v>37</v>
       </c>
       <c r="G214">
-        <v>55.6</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="H214">
         <v>3</v>
@@ -6069,25 +6069,25 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B215">
-        <v>521000</v>
+        <v>246000</v>
       </c>
       <c r="C215">
-        <v>428000</v>
+        <v>243000</v>
       </c>
       <c r="D215">
-        <v>0.82</v>
+        <v>0.99</v>
       </c>
       <c r="E215">
-        <v>93000</v>
+        <v>2000</v>
       </c>
       <c r="F215" t="s">
         <v>37</v>
       </c>
       <c r="G215">
-        <v>82.15000000000001</v>
+        <v>98.78</v>
       </c>
       <c r="H215">
         <v>4</v>
@@ -6095,25 +6095,25 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B216">
-        <v>246000</v>
+        <v>32000</v>
       </c>
       <c r="C216">
-        <v>243000</v>
+        <v>29000</v>
       </c>
       <c r="D216">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="E216">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F216" t="s">
         <v>37</v>
       </c>
       <c r="G216">
-        <v>98.78</v>
+        <v>90.63</v>
       </c>
       <c r="H216">
         <v>5</v>
@@ -6124,13 +6124,13 @@
         <v>14</v>
       </c>
       <c r="B217">
-        <v>320000</v>
+        <v>521000</v>
       </c>
       <c r="C217">
-        <v>227000</v>
+        <v>428000</v>
       </c>
       <c r="D217">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="E217">
         <v>93000</v>
@@ -6139,7 +6139,7 @@
         <v>37</v>
       </c>
       <c r="G217">
-        <v>70.94</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="H217">
         <v>6</v>
@@ -6147,25 +6147,25 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B218">
-        <v>171000</v>
+        <v>320000</v>
       </c>
       <c r="C218">
-        <v>170000</v>
+        <v>227000</v>
       </c>
       <c r="D218">
-        <v>0.99</v>
+        <v>0.71</v>
       </c>
       <c r="E218">
-        <v>2000</v>
+        <v>93000</v>
       </c>
       <c r="F218" t="s">
         <v>37</v>
       </c>
       <c r="G218">
-        <v>99.42</v>
+        <v>70.94</v>
       </c>
       <c r="H218">
         <v>7</v>
@@ -6173,25 +6173,25 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B219">
-        <v>763000</v>
+        <v>1054000</v>
       </c>
       <c r="C219">
-        <v>126000</v>
+        <v>586000</v>
       </c>
       <c r="D219">
-        <v>0.17</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E219">
-        <v>637000</v>
+        <v>467000</v>
       </c>
       <c r="F219" t="s">
         <v>37</v>
       </c>
       <c r="G219">
-        <v>16.51</v>
+        <v>55.6</v>
       </c>
       <c r="H219">
         <v>8</v>
@@ -6199,25 +6199,25 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B220">
-        <v>949000</v>
+        <v>64000</v>
       </c>
       <c r="C220">
-        <v>41000</v>
+        <v>12000</v>
       </c>
       <c r="D220">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="E220">
-        <v>909000</v>
+        <v>52000</v>
       </c>
       <c r="F220" t="s">
         <v>37</v>
       </c>
       <c r="G220">
-        <v>4.32</v>
+        <v>18.75</v>
       </c>
       <c r="H220">
         <v>9</v>
@@ -6228,22 +6228,22 @@
         <v>18</v>
       </c>
       <c r="B221">
-        <v>32000</v>
+        <v>763000</v>
       </c>
       <c r="C221">
-        <v>29000</v>
+        <v>126000</v>
       </c>
       <c r="D221">
-        <v>0.9</v>
+        <v>0.17</v>
       </c>
       <c r="E221">
-        <v>3000</v>
+        <v>637000</v>
       </c>
       <c r="F221" t="s">
         <v>37</v>
       </c>
       <c r="G221">
-        <v>90.63</v>
+        <v>16.51</v>
       </c>
       <c r="H221">
         <v>10</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B222">
         <v>240000</v>
@@ -6306,22 +6306,22 @@
         <v>17</v>
       </c>
       <c r="B224">
-        <v>64000</v>
+        <v>949000</v>
       </c>
       <c r="C224">
-        <v>12000</v>
+        <v>41000</v>
       </c>
       <c r="D224">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="E224">
-        <v>52000</v>
+        <v>909000</v>
       </c>
       <c r="F224" t="s">
         <v>37</v>
       </c>
       <c r="G224">
-        <v>18.75</v>
+        <v>4.32</v>
       </c>
       <c r="H224">
         <v>13</v>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B225">
         <v>286000</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B226">
         <v>1440000</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B227">
         <v>1278000</v>
@@ -6407,25 +6407,25 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B228">
-        <v>1011000</v>
+        <v>126000</v>
       </c>
       <c r="C228">
-        <v>449000</v>
+        <v>124000</v>
       </c>
       <c r="D228">
-        <v>0.44</v>
+        <v>0.99</v>
       </c>
       <c r="E228">
-        <v>561000</v>
+        <v>2000</v>
       </c>
       <c r="F228" t="s">
         <v>38</v>
       </c>
       <c r="G228">
-        <v>44.41</v>
+        <v>98.41</v>
       </c>
       <c r="H228">
         <v>3</v>
@@ -6433,25 +6433,25 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B229">
-        <v>400000</v>
+        <v>174000</v>
       </c>
       <c r="C229">
-        <v>293000</v>
+        <v>171000</v>
       </c>
       <c r="D229">
-        <v>0.73</v>
+        <v>0.99</v>
       </c>
       <c r="E229">
-        <v>107000</v>
+        <v>3000</v>
       </c>
       <c r="F229" t="s">
         <v>38</v>
       </c>
       <c r="G229">
-        <v>73.25</v>
+        <v>98.28</v>
       </c>
       <c r="H229">
         <v>4</v>
@@ -6459,25 +6459,25 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B230">
-        <v>438000</v>
+        <v>33000</v>
       </c>
       <c r="C230">
-        <v>289000</v>
+        <v>31000</v>
       </c>
       <c r="D230">
-        <v>0.66</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E230">
-        <v>149000</v>
+        <v>2000</v>
       </c>
       <c r="F230" t="s">
         <v>38</v>
       </c>
       <c r="G230">
-        <v>65.98</v>
+        <v>93.94</v>
       </c>
       <c r="H230">
         <v>5</v>
@@ -6485,25 +6485,25 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B231">
-        <v>174000</v>
+        <v>400000</v>
       </c>
       <c r="C231">
-        <v>171000</v>
+        <v>293000</v>
       </c>
       <c r="D231">
-        <v>0.99</v>
+        <v>0.73</v>
       </c>
       <c r="E231">
-        <v>3000</v>
+        <v>107000</v>
       </c>
       <c r="F231" t="s">
         <v>38</v>
       </c>
       <c r="G231">
-        <v>98.28</v>
+        <v>73.25</v>
       </c>
       <c r="H231">
         <v>6</v>
@@ -6511,25 +6511,25 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B232">
-        <v>744000</v>
+        <v>438000</v>
       </c>
       <c r="C232">
-        <v>136000</v>
+        <v>289000</v>
       </c>
       <c r="D232">
-        <v>0.18</v>
+        <v>0.66</v>
       </c>
       <c r="E232">
-        <v>607000</v>
+        <v>149000</v>
       </c>
       <c r="F232" t="s">
         <v>38</v>
       </c>
       <c r="G232">
-        <v>18.28</v>
+        <v>65.98</v>
       </c>
       <c r="H232">
         <v>7</v>
@@ -6540,22 +6540,22 @@
         <v>13</v>
       </c>
       <c r="B233">
-        <v>126000</v>
+        <v>1011000</v>
       </c>
       <c r="C233">
-        <v>124000</v>
+        <v>449000</v>
       </c>
       <c r="D233">
-        <v>0.99</v>
+        <v>0.44</v>
       </c>
       <c r="E233">
-        <v>2000</v>
+        <v>561000</v>
       </c>
       <c r="F233" t="s">
         <v>38</v>
       </c>
       <c r="G233">
-        <v>98.41</v>
+        <v>44.41</v>
       </c>
       <c r="H233">
         <v>8</v>
@@ -6563,25 +6563,25 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B234">
-        <v>930000</v>
+        <v>744000</v>
       </c>
       <c r="C234">
-        <v>37000</v>
+        <v>136000</v>
       </c>
       <c r="D234">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="E234">
-        <v>893000</v>
+        <v>607000</v>
       </c>
       <c r="F234" t="s">
         <v>38</v>
       </c>
       <c r="G234">
-        <v>3.98</v>
+        <v>18.28</v>
       </c>
       <c r="H234">
         <v>9</v>
@@ -6589,25 +6589,25 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B235">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="C235">
-        <v>31000</v>
+        <v>11000</v>
       </c>
       <c r="D235">
-        <v>0.9399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="E235">
-        <v>2000</v>
+        <v>64000</v>
       </c>
       <c r="F235" t="s">
         <v>38</v>
       </c>
       <c r="G235">
-        <v>93.94</v>
+        <v>14.67</v>
       </c>
       <c r="H235">
         <v>10</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B236">
         <v>252000</v>
@@ -6641,7 +6641,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B237">
         <v>210000</v>
@@ -6670,22 +6670,22 @@
         <v>17</v>
       </c>
       <c r="B238">
-        <v>75000</v>
+        <v>930000</v>
       </c>
       <c r="C238">
-        <v>11000</v>
+        <v>37000</v>
       </c>
       <c r="D238">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="E238">
-        <v>64000</v>
+        <v>893000</v>
       </c>
       <c r="F238" t="s">
         <v>38</v>
       </c>
       <c r="G238">
-        <v>14.67</v>
+        <v>3.98</v>
       </c>
       <c r="H238">
         <v>13</v>
@@ -6722,22 +6722,22 @@
         <v>8</v>
       </c>
       <c r="B240">
-        <v>934000</v>
+        <v>825000</v>
       </c>
       <c r="C240">
-        <v>930000</v>
+        <v>822000</v>
       </c>
       <c r="D240">
         <v>0.99</v>
       </c>
       <c r="E240">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="F240" t="s">
         <v>39</v>
       </c>
       <c r="G240">
-        <v>99.56999999999999</v>
+        <v>99.64</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -6745,25 +6745,25 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B241">
-        <v>825000</v>
+        <v>934000</v>
       </c>
       <c r="C241">
-        <v>822000</v>
+        <v>930000</v>
       </c>
       <c r="D241">
         <v>0.99</v>
       </c>
       <c r="E241">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F241" t="s">
         <v>39</v>
       </c>
       <c r="G241">
-        <v>99.64</v>
+        <v>99.56999999999999</v>
       </c>
       <c r="H241">
         <v>2</v>
@@ -6771,25 +6771,25 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B242">
-        <v>1144000</v>
+        <v>106000</v>
       </c>
       <c r="C242">
-        <v>432000</v>
+        <v>104000</v>
       </c>
       <c r="D242">
-        <v>0.38</v>
+        <v>0.99</v>
       </c>
       <c r="E242">
-        <v>712000</v>
+        <v>2000</v>
       </c>
       <c r="F242" t="s">
         <v>39</v>
       </c>
       <c r="G242">
-        <v>37.76</v>
+        <v>98.11</v>
       </c>
       <c r="H242">
         <v>3</v>
@@ -6797,25 +6797,25 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B243">
-        <v>313000</v>
+        <v>75000</v>
       </c>
       <c r="C243">
-        <v>249000</v>
+        <v>73000</v>
       </c>
       <c r="D243">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="E243">
-        <v>64000</v>
+        <v>2000</v>
       </c>
       <c r="F243" t="s">
         <v>39</v>
       </c>
       <c r="G243">
-        <v>79.55</v>
+        <v>97.33</v>
       </c>
       <c r="H243">
         <v>4</v>
@@ -6823,25 +6823,25 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B244">
-        <v>304000</v>
+        <v>23000</v>
       </c>
       <c r="C244">
-        <v>195000</v>
+        <v>22000</v>
       </c>
       <c r="D244">
-        <v>0.64</v>
+        <v>0.95</v>
       </c>
       <c r="E244">
-        <v>109000</v>
+        <v>1000</v>
       </c>
       <c r="F244" t="s">
         <v>39</v>
       </c>
       <c r="G244">
-        <v>64.14</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="H244">
         <v>5</v>
@@ -6849,25 +6849,25 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B245">
-        <v>665000</v>
+        <v>313000</v>
       </c>
       <c r="C245">
-        <v>126000</v>
+        <v>249000</v>
       </c>
       <c r="D245">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="E245">
-        <v>539000</v>
+        <v>64000</v>
       </c>
       <c r="F245" t="s">
         <v>39</v>
       </c>
       <c r="G245">
-        <v>18.95</v>
+        <v>79.55</v>
       </c>
       <c r="H245">
         <v>6</v>
@@ -6875,25 +6875,25 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B246">
-        <v>106000</v>
+        <v>304000</v>
       </c>
       <c r="C246">
-        <v>104000</v>
+        <v>195000</v>
       </c>
       <c r="D246">
-        <v>0.99</v>
+        <v>0.64</v>
       </c>
       <c r="E246">
-        <v>2000</v>
+        <v>109000</v>
       </c>
       <c r="F246" t="s">
         <v>39</v>
       </c>
       <c r="G246">
-        <v>98.11</v>
+        <v>64.14</v>
       </c>
       <c r="H246">
         <v>7</v>
@@ -6904,22 +6904,22 @@
         <v>13</v>
       </c>
       <c r="B247">
-        <v>75000</v>
+        <v>1144000</v>
       </c>
       <c r="C247">
-        <v>73000</v>
+        <v>432000</v>
       </c>
       <c r="D247">
-        <v>0.98</v>
+        <v>0.38</v>
       </c>
       <c r="E247">
-        <v>2000</v>
+        <v>712000</v>
       </c>
       <c r="F247" t="s">
         <v>39</v>
       </c>
       <c r="G247">
-        <v>97.33</v>
+        <v>37.76</v>
       </c>
       <c r="H247">
         <v>8</v>
@@ -6927,25 +6927,25 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B248">
-        <v>868000</v>
+        <v>665000</v>
       </c>
       <c r="C248">
-        <v>36000</v>
+        <v>126000</v>
       </c>
       <c r="D248">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="E248">
-        <v>832000</v>
+        <v>539000</v>
       </c>
       <c r="F248" t="s">
         <v>39</v>
       </c>
       <c r="G248">
-        <v>4.15</v>
+        <v>18.95</v>
       </c>
       <c r="H248">
         <v>9</v>
@@ -6953,25 +6953,25 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B249">
-        <v>23000</v>
+        <v>193000</v>
       </c>
       <c r="C249">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="D249">
-        <v>0.95</v>
+        <v>0.11</v>
       </c>
       <c r="E249">
-        <v>1000</v>
+        <v>173000</v>
       </c>
       <c r="F249" t="s">
         <v>39</v>
       </c>
       <c r="G249">
-        <v>95.65000000000001</v>
+        <v>10.88</v>
       </c>
       <c r="H249">
         <v>10</v>
@@ -6979,25 +6979,25 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B250">
-        <v>193000</v>
+        <v>66000</v>
       </c>
       <c r="C250">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="D250">
         <v>0.11</v>
       </c>
       <c r="E250">
-        <v>173000</v>
+        <v>58000</v>
       </c>
       <c r="F250" t="s">
         <v>39</v>
       </c>
       <c r="G250">
-        <v>10.88</v>
+        <v>10.61</v>
       </c>
       <c r="H250">
         <v>11</v>
@@ -7005,7 +7005,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B251">
         <v>228000</v>
@@ -7031,25 +7031,25 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B252">
-        <v>66000</v>
+        <v>137000</v>
       </c>
       <c r="C252">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="D252">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="E252">
-        <v>58000</v>
+        <v>131000</v>
       </c>
       <c r="F252" t="s">
         <v>39</v>
       </c>
       <c r="G252">
-        <v>10.61</v>
+        <v>4.38</v>
       </c>
       <c r="H252">
         <v>13</v>
@@ -7057,25 +7057,25 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B253">
-        <v>137000</v>
+        <v>868000</v>
       </c>
       <c r="C253">
-        <v>6000</v>
+        <v>36000</v>
       </c>
       <c r="D253">
         <v>0.04</v>
       </c>
       <c r="E253">
-        <v>131000</v>
+        <v>832000</v>
       </c>
       <c r="F253" t="s">
         <v>39</v>
       </c>
       <c r="G253">
-        <v>4.38</v>
+        <v>4.15</v>
       </c>
       <c r="H253">
         <v>14</v>
@@ -7086,22 +7086,22 @@
         <v>8</v>
       </c>
       <c r="B254">
-        <v>1312000</v>
+        <v>1013000</v>
       </c>
       <c r="C254">
-        <v>1306000</v>
+        <v>1011000</v>
       </c>
       <c r="D254">
         <v>0.99</v>
       </c>
       <c r="E254">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="F254" t="s">
         <v>40</v>
       </c>
       <c r="G254">
-        <v>99.54000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="H254">
         <v>1</v>
@@ -7109,25 +7109,25 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B255">
-        <v>1013000</v>
+        <v>1312000</v>
       </c>
       <c r="C255">
-        <v>1011000</v>
+        <v>1306000</v>
       </c>
       <c r="D255">
         <v>0.99</v>
       </c>
       <c r="E255">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="F255" t="s">
         <v>40</v>
       </c>
       <c r="G255">
-        <v>99.8</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="H255">
         <v>2</v>
@@ -7135,25 +7135,25 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B256">
-        <v>1136000</v>
+        <v>182000</v>
       </c>
       <c r="C256">
-        <v>437000</v>
+        <v>181000</v>
       </c>
       <c r="D256">
-        <v>0.39</v>
+        <v>0.99</v>
       </c>
       <c r="E256">
-        <v>699000</v>
+        <v>1000</v>
       </c>
       <c r="F256" t="s">
         <v>40</v>
       </c>
       <c r="G256">
-        <v>38.47</v>
+        <v>99.45</v>
       </c>
       <c r="H256">
         <v>3</v>
@@ -7161,25 +7161,25 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B257">
-        <v>332000</v>
+        <v>88000</v>
       </c>
       <c r="C257">
-        <v>277000</v>
+        <v>87000</v>
       </c>
       <c r="D257">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="E257">
-        <v>55000</v>
+        <v>1000</v>
       </c>
       <c r="F257" t="s">
         <v>40</v>
       </c>
       <c r="G257">
-        <v>83.43000000000001</v>
+        <v>98.86</v>
       </c>
       <c r="H257">
         <v>4</v>
@@ -7187,25 +7187,25 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B258">
-        <v>310000</v>
+        <v>27000</v>
       </c>
       <c r="C258">
-        <v>234000</v>
+        <v>26000</v>
       </c>
       <c r="D258">
-        <v>0.76</v>
+        <v>0.95</v>
       </c>
       <c r="E258">
-        <v>76000</v>
+        <v>1000</v>
       </c>
       <c r="F258" t="s">
         <v>40</v>
       </c>
       <c r="G258">
-        <v>75.48</v>
+        <v>96.3</v>
       </c>
       <c r="H258">
         <v>5</v>
@@ -7213,25 +7213,25 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B259">
-        <v>182000</v>
+        <v>332000</v>
       </c>
       <c r="C259">
-        <v>181000</v>
+        <v>277000</v>
       </c>
       <c r="D259">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="E259">
-        <v>1000</v>
+        <v>55000</v>
       </c>
       <c r="F259" t="s">
         <v>40</v>
       </c>
       <c r="G259">
-        <v>99.45</v>
+        <v>83.43000000000001</v>
       </c>
       <c r="H259">
         <v>6</v>
@@ -7239,25 +7239,25 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B260">
-        <v>817000</v>
+        <v>310000</v>
       </c>
       <c r="C260">
-        <v>154000</v>
+        <v>234000</v>
       </c>
       <c r="D260">
-        <v>0.19</v>
+        <v>0.76</v>
       </c>
       <c r="E260">
-        <v>663000</v>
+        <v>76000</v>
       </c>
       <c r="F260" t="s">
         <v>40</v>
       </c>
       <c r="G260">
-        <v>18.85</v>
+        <v>75.48</v>
       </c>
       <c r="H260">
         <v>7</v>
@@ -7268,22 +7268,22 @@
         <v>13</v>
       </c>
       <c r="B261">
-        <v>88000</v>
+        <v>1136000</v>
       </c>
       <c r="C261">
-        <v>87000</v>
+        <v>437000</v>
       </c>
       <c r="D261">
-        <v>0.98</v>
+        <v>0.39</v>
       </c>
       <c r="E261">
-        <v>1000</v>
+        <v>699000</v>
       </c>
       <c r="F261" t="s">
         <v>40</v>
       </c>
       <c r="G261">
-        <v>98.86</v>
+        <v>38.47</v>
       </c>
       <c r="H261">
         <v>8</v>
@@ -7291,25 +7291,25 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B262">
-        <v>982000</v>
+        <v>817000</v>
       </c>
       <c r="C262">
-        <v>58000</v>
+        <v>154000</v>
       </c>
       <c r="D262">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="E262">
-        <v>924000</v>
+        <v>663000</v>
       </c>
       <c r="F262" t="s">
         <v>40</v>
       </c>
       <c r="G262">
-        <v>5.91</v>
+        <v>18.85</v>
       </c>
       <c r="H262">
         <v>9</v>
@@ -7317,25 +7317,25 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B263">
-        <v>27000</v>
+        <v>74000</v>
       </c>
       <c r="C263">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="D263">
-        <v>0.95</v>
+        <v>0.13</v>
       </c>
       <c r="E263">
-        <v>1000</v>
+        <v>65000</v>
       </c>
       <c r="F263" t="s">
         <v>40</v>
       </c>
       <c r="G263">
-        <v>96.3</v>
+        <v>12.16</v>
       </c>
       <c r="H263">
         <v>10</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B264">
         <v>249000</v>
@@ -7369,7 +7369,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B265">
         <v>233000</v>
@@ -7398,22 +7398,22 @@
         <v>17</v>
       </c>
       <c r="B266">
-        <v>74000</v>
+        <v>982000</v>
       </c>
       <c r="C266">
-        <v>9000</v>
+        <v>58000</v>
       </c>
       <c r="D266">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="E266">
-        <v>65000</v>
+        <v>924000</v>
       </c>
       <c r="F266" t="s">
         <v>40</v>
       </c>
       <c r="G266">
-        <v>12.16</v>
+        <v>5.91</v>
       </c>
       <c r="H266">
         <v>13</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B268">
         <v>1424000</v>
@@ -7473,7 +7473,7 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B269">
         <v>1338000</v>
@@ -7499,25 +7499,25 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B270">
-        <v>1064000</v>
+        <v>92000</v>
       </c>
       <c r="C270">
-        <v>394000</v>
+        <v>91000</v>
       </c>
       <c r="D270">
-        <v>0.37</v>
+        <v>0.98</v>
       </c>
       <c r="E270">
-        <v>671000</v>
+        <v>2000</v>
       </c>
       <c r="F270" t="s">
         <v>41</v>
       </c>
       <c r="G270">
-        <v>37.03</v>
+        <v>98.91</v>
       </c>
       <c r="H270">
         <v>3</v>
@@ -7525,25 +7525,25 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B271">
-        <v>419000</v>
+        <v>169000</v>
       </c>
       <c r="C271">
-        <v>298000</v>
+        <v>166000</v>
       </c>
       <c r="D271">
-        <v>0.71</v>
+        <v>0.99</v>
       </c>
       <c r="E271">
-        <v>121000</v>
+        <v>2000</v>
       </c>
       <c r="F271" t="s">
         <v>41</v>
       </c>
       <c r="G271">
-        <v>71.12</v>
+        <v>98.22</v>
       </c>
       <c r="H271">
         <v>4</v>
@@ -7554,22 +7554,22 @@
         <v>12</v>
       </c>
       <c r="B272">
-        <v>221000</v>
+        <v>26000</v>
       </c>
       <c r="C272">
-        <v>188000</v>
+        <v>25000</v>
       </c>
       <c r="D272">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="E272">
-        <v>32000</v>
+        <v>1000</v>
       </c>
       <c r="F272" t="s">
         <v>41</v>
       </c>
       <c r="G272">
-        <v>85.06999999999999</v>
+        <v>96.15000000000001</v>
       </c>
       <c r="H272">
         <v>5</v>
@@ -7577,25 +7577,25 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B273">
-        <v>169000</v>
+        <v>221000</v>
       </c>
       <c r="C273">
-        <v>166000</v>
+        <v>188000</v>
       </c>
       <c r="D273">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="E273">
-        <v>2000</v>
+        <v>32000</v>
       </c>
       <c r="F273" t="s">
         <v>41</v>
       </c>
       <c r="G273">
-        <v>98.22</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="H273">
         <v>6</v>
@@ -7603,25 +7603,25 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B274">
-        <v>813000</v>
+        <v>419000</v>
       </c>
       <c r="C274">
-        <v>146000</v>
+        <v>298000</v>
       </c>
       <c r="D274">
-        <v>0.18</v>
+        <v>0.71</v>
       </c>
       <c r="E274">
-        <v>667000</v>
+        <v>121000</v>
       </c>
       <c r="F274" t="s">
         <v>41</v>
       </c>
       <c r="G274">
-        <v>17.96</v>
+        <v>71.12</v>
       </c>
       <c r="H274">
         <v>7</v>
@@ -7632,22 +7632,22 @@
         <v>13</v>
       </c>
       <c r="B275">
-        <v>92000</v>
+        <v>1064000</v>
       </c>
       <c r="C275">
-        <v>91000</v>
+        <v>394000</v>
       </c>
       <c r="D275">
-        <v>0.98</v>
+        <v>0.37</v>
       </c>
       <c r="E275">
-        <v>2000</v>
+        <v>671000</v>
       </c>
       <c r="F275" t="s">
         <v>41</v>
       </c>
       <c r="G275">
-        <v>98.91</v>
+        <v>37.03</v>
       </c>
       <c r="H275">
         <v>8</v>
@@ -7655,25 +7655,25 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B276">
-        <v>1001000</v>
+        <v>813000</v>
       </c>
       <c r="C276">
-        <v>57000</v>
+        <v>146000</v>
       </c>
       <c r="D276">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="E276">
-        <v>944000</v>
+        <v>667000</v>
       </c>
       <c r="F276" t="s">
         <v>41</v>
       </c>
       <c r="G276">
-        <v>5.69</v>
+        <v>17.96</v>
       </c>
       <c r="H276">
         <v>9</v>
@@ -7681,25 +7681,25 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B277">
-        <v>249000</v>
+        <v>73000</v>
       </c>
       <c r="C277">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="D277">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E277">
-        <v>219000</v>
+        <v>63000</v>
       </c>
       <c r="F277" t="s">
         <v>41</v>
       </c>
       <c r="G277">
-        <v>12.05</v>
+        <v>15.07</v>
       </c>
       <c r="H277">
         <v>10</v>
@@ -7710,22 +7710,22 @@
         <v>20</v>
       </c>
       <c r="B278">
-        <v>241000</v>
+        <v>249000</v>
       </c>
       <c r="C278">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="D278">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E278">
-        <v>213000</v>
+        <v>219000</v>
       </c>
       <c r="F278" t="s">
         <v>41</v>
       </c>
       <c r="G278">
-        <v>11.2</v>
+        <v>12.05</v>
       </c>
       <c r="H278">
         <v>11</v>
@@ -7733,25 +7733,25 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B279">
-        <v>26000</v>
+        <v>241000</v>
       </c>
       <c r="C279">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="D279">
-        <v>0.95</v>
+        <v>0.11</v>
       </c>
       <c r="E279">
-        <v>1000</v>
+        <v>213000</v>
       </c>
       <c r="F279" t="s">
         <v>41</v>
       </c>
       <c r="G279">
-        <v>96.15000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="H279">
         <v>12</v>
@@ -7762,22 +7762,22 @@
         <v>17</v>
       </c>
       <c r="B280">
-        <v>73000</v>
+        <v>1001000</v>
       </c>
       <c r="C280">
-        <v>11000</v>
+        <v>57000</v>
       </c>
       <c r="D280">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="E280">
-        <v>63000</v>
+        <v>944000</v>
       </c>
       <c r="F280" t="s">
         <v>41</v>
       </c>
       <c r="G280">
-        <v>15.07</v>
+        <v>5.69</v>
       </c>
       <c r="H280">
         <v>13</v>
